--- a/Code/Results/Cases/Case_1_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_55/res_line/loading_percent.xlsx
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.8815439441868</v>
+        <v>14.88154394418681</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -421,10 +421,10 @@
         <v>8.544915795777284</v>
       </c>
       <c r="E2">
-        <v>7.27345405022142</v>
+        <v>7.273454050221449</v>
       </c>
       <c r="F2">
-        <v>64.18082351910283</v>
+        <v>64.18082351910262</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,13 +433,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>6.065649081080998</v>
+        <v>6.065649081080973</v>
       </c>
       <c r="J2">
-        <v>43.19261203802973</v>
+        <v>43.19261203802969</v>
       </c>
       <c r="K2">
-        <v>32.71331233225</v>
+        <v>32.71331233224996</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.76184209047218</v>
+        <v>13.76184209047224</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.867754183525501</v>
+        <v>7.867754183525502</v>
       </c>
       <c r="E3">
-        <v>6.984187772076086</v>
+        <v>6.984187772075881</v>
       </c>
       <c r="F3">
-        <v>59.33446001547763</v>
+        <v>59.33446001547795</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>6.064558211547246</v>
+        <v>6.06455821154717</v>
       </c>
       <c r="J3">
-        <v>39.8467257436138</v>
+        <v>39.84672574361385</v>
       </c>
       <c r="K3">
-        <v>30.15868241774363</v>
+        <v>30.15868241774368</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.04803005174128</v>
+        <v>13.04803005174126</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.492204565171664</v>
+        <v>7.492204565171674</v>
       </c>
       <c r="E4">
-        <v>6.810878936885663</v>
+        <v>6.810878936885727</v>
       </c>
       <c r="F4">
-        <v>56.40869618497572</v>
+        <v>56.40869618497574</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>6.06876023846137</v>
+        <v>6.068760238461495</v>
       </c>
       <c r="J4">
-        <v>37.7296943351953</v>
+        <v>37.72969433519523</v>
       </c>
       <c r="K4">
-        <v>28.54465855244511</v>
+        <v>28.54465855244502</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.75010840123595</v>
+        <v>12.75010840123594</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.339928477393654</v>
+        <v>7.339928477393612</v>
       </c>
       <c r="E5">
-        <v>6.740977212494646</v>
+        <v>6.74097721249446</v>
       </c>
       <c r="F5">
-        <v>55.21251382245285</v>
+        <v>55.21251382245261</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>6.071517987412163</v>
+        <v>6.071517987412086</v>
       </c>
       <c r="J5">
-        <v>36.84932135800027</v>
+        <v>36.8493213580001</v>
       </c>
       <c r="K5">
-        <v>27.87398336449477</v>
+        <v>27.87398336449465</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.70020286363881</v>
+        <v>12.70020286363884</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.314680636701213</v>
+        <v>7.314680636701219</v>
       </c>
       <c r="E6">
-        <v>6.729404900813125</v>
+        <v>6.729404900813184</v>
       </c>
       <c r="F6">
-        <v>55.01359875140257</v>
+        <v>55.01359875140264</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>6.072034503302815</v>
+        <v>6.072034503302951</v>
       </c>
       <c r="J6">
-        <v>36.70201985371999</v>
+        <v>36.70201985372004</v>
       </c>
       <c r="K6">
-        <v>27.76179726150196</v>
+        <v>27.76179726150194</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.04404117003088</v>
+        <v>13.04404117003085</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.490148231914719</v>
+        <v>7.490148231914698</v>
       </c>
       <c r="E7">
-        <v>6.809933700784862</v>
+        <v>6.809933700784995</v>
       </c>
       <c r="F7">
-        <v>56.39258242416645</v>
+        <v>56.39258242416629</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>6.068793407593136</v>
+        <v>6.068793407593255</v>
       </c>
       <c r="J7">
-        <v>37.71789511523367</v>
+        <v>37.7178951152337</v>
       </c>
       <c r="K7">
-        <v>28.53566781287524</v>
+        <v>28.53566781287527</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.50065033443532</v>
+        <v>14.50065033443527</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.292367522315281</v>
+        <v>8.292367522315201</v>
       </c>
       <c r="E8">
-        <v>7.172575648663932</v>
+        <v>7.17257564866387</v>
       </c>
       <c r="F8">
-        <v>62.46333669775546</v>
+        <v>62.46333669775541</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>6.064140414743681</v>
+        <v>6.064140414743672</v>
       </c>
       <c r="J8">
-        <v>42.05067621413907</v>
+        <v>42.05067621413915</v>
       </c>
       <c r="K8">
-        <v>31.84090462144549</v>
+        <v>31.84090462144563</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -684,13 +684,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.12557713623163</v>
+        <v>10.12557713623157</v>
       </c>
       <c r="E9">
-        <v>7.940711999930048</v>
+        <v>7.94071199993008</v>
       </c>
       <c r="F9">
-        <v>74.95957051320552</v>
+        <v>74.95957051320516</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>6.104649304182138</v>
+        <v>6.104649304182151</v>
       </c>
       <c r="J9">
-        <v>50.16331639126563</v>
+        <v>50.16331639126547</v>
       </c>
       <c r="K9">
-        <v>38.05101379262794</v>
+        <v>38.05101379262777</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.07366814913389</v>
+        <v>19.07366814913382</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.5320168868253</v>
+        <v>11.5320168868252</v>
       </c>
       <c r="E10">
-        <v>8.589331381779095</v>
+        <v>8.589331381778914</v>
       </c>
       <c r="F10">
-        <v>84.53078560714789</v>
+        <v>84.53078560714734</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>6.187548363387093</v>
+        <v>6.187548363387011</v>
       </c>
       <c r="J10">
-        <v>56.1171330053048</v>
+        <v>56.11713300530455</v>
       </c>
       <c r="K10">
-        <v>42.62732940150399</v>
+        <v>42.62732940150385</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.94307415607289</v>
+        <v>19.94307415607296</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.21150494805993</v>
+        <v>12.21150494806002</v>
       </c>
       <c r="E11">
-        <v>8.923148977070124</v>
+        <v>8.923148977070285</v>
       </c>
       <c r="F11">
-        <v>89.12976430504659</v>
+        <v>89.12976430504712</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>6.245925633138097</v>
+        <v>6.245925633138174</v>
       </c>
       <c r="J11">
-        <v>58.91157582317879</v>
+        <v>58.91157582317911</v>
       </c>
       <c r="K11">
-        <v>44.78072439003484</v>
+        <v>44.78072439003501</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.27561394143995</v>
+        <v>20.27561394143989</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.47841638661806</v>
+        <v>12.47841638661802</v>
       </c>
       <c r="E12">
-        <v>9.058236167264861</v>
+        <v>9.05823616726483</v>
       </c>
       <c r="F12">
-        <v>90.93005293744193</v>
+        <v>90.93005293744169</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>6.272362457136875</v>
+        <v>6.272362457136865</v>
       </c>
       <c r="J12">
-        <v>59.99478789076915</v>
+        <v>59.99478789076912</v>
       </c>
       <c r="K12">
-        <v>45.61635515389352</v>
+        <v>45.61635515389349</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.20378988897786</v>
+        <v>20.20378988897784</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.42041734674768</v>
+        <v>12.4204173467476</v>
       </c>
       <c r="E13">
-        <v>9.028685518225837</v>
+        <v>9.028685518225775</v>
       </c>
       <c r="F13">
-        <v>90.53918539956996</v>
+        <v>90.53918539957016</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>6.266445292889474</v>
+        <v>6.266445292889516</v>
       </c>
       <c r="J13">
-        <v>59.76010199069146</v>
+        <v>59.76010199069147</v>
       </c>
       <c r="K13">
-        <v>45.43526758220469</v>
+        <v>45.43526758220467</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.97034563291531</v>
+        <v>19.97034563291526</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12.23324082104673</v>
+        <v>12.23324082104676</v>
       </c>
       <c r="E14">
-        <v>8.9340639464465</v>
+        <v>8.934063946446484</v>
       </c>
       <c r="F14">
-        <v>89.27651266333861</v>
+        <v>89.27651266333835</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>6.248003038548763</v>
+        <v>6.248003038548713</v>
       </c>
       <c r="J14">
         <v>59.00009179569965</v>
       </c>
       <c r="K14">
-        <v>44.84899027745782</v>
+        <v>44.84899027745784</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.82788843377248</v>
+        <v>19.82788843377243</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12.11999459774744</v>
+        <v>12.11999459774737</v>
       </c>
       <c r="E15">
-        <v>8.877360318650842</v>
+        <v>8.877360318650757</v>
       </c>
       <c r="F15">
-        <v>88.5116716339931</v>
+        <v>88.51167163399275</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>6.237324786730076</v>
       </c>
       <c r="J15">
-        <v>58.53832071766425</v>
+        <v>58.53832071766396</v>
       </c>
       <c r="K15">
-        <v>44.49289704199789</v>
+        <v>44.49289704199764</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.01714155240722</v>
+        <v>19.01714155240728</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.48869589552736</v>
+        <v>11.4886958955273</v>
       </c>
       <c r="E16">
-        <v>8.568521446701856</v>
+        <v>8.568521446701791</v>
       </c>
       <c r="F16">
-        <v>84.23688987269661</v>
+        <v>84.23688987269668</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>6.184248499480725</v>
+        <v>6.184248499480695</v>
       </c>
       <c r="J16">
-        <v>55.93717153644832</v>
+        <v>55.93717153644834</v>
       </c>
       <c r="K16">
-        <v>42.48876964407023</v>
+        <v>42.48876964407025</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.52248997943972</v>
+        <v>18.52248997943964</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.11375398037149</v>
+        <v>11.11375398037148</v>
       </c>
       <c r="E17">
-        <v>8.390688571968024</v>
+        <v>8.390688571968122</v>
       </c>
       <c r="F17">
-        <v>81.69030283117129</v>
+        <v>81.69030283117141</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>6.157732486249817</v>
+        <v>6.157732486249841</v>
       </c>
       <c r="J17">
-        <v>54.37055258787507</v>
+        <v>54.37055258787513</v>
       </c>
       <c r="K17">
-        <v>41.2831802070894</v>
+        <v>41.28318020708949</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.23822523478997</v>
+        <v>18.23822523479006</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.90151898042033</v>
+        <v>10.90151898042035</v>
       </c>
       <c r="E18">
-        <v>8.291798287470417</v>
+        <v>8.291798287470288</v>
       </c>
       <c r="F18">
         <v>80.24672951935986</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>6.144316098783447</v>
+        <v>6.144316098783322</v>
       </c>
       <c r="J18">
-        <v>53.4765534566197</v>
+        <v>53.47655345661963</v>
       </c>
       <c r="K18">
-        <v>40.59570170282895</v>
+        <v>40.59570170282889</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.14196064934429</v>
+        <v>18.14196064934432</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.83016002236389</v>
+        <v>10.83016002236391</v>
       </c>
       <c r="E19">
-        <v>8.258830506800564</v>
+        <v>8.258830506800496</v>
       </c>
       <c r="F19">
-        <v>79.76106646550075</v>
+        <v>79.76106646550079</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>6.140058508519022</v>
+        <v>6.140058508518995</v>
       </c>
       <c r="J19">
-        <v>53.17479165860998</v>
+        <v>53.17479165860999</v>
       </c>
       <c r="K19">
-        <v>40.36373107708895</v>
+        <v>40.36373107708896</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.57510624377384</v>
+        <v>18.57510624377387</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.15329128779809</v>
+        <v>11.15329128779803</v>
       </c>
       <c r="E20">
-        <v>8.409250839569921</v>
+        <v>8.409250839570005</v>
       </c>
       <c r="F20">
-        <v>81.95907048399022</v>
+        <v>81.95907048399019</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>6.160357733574787</v>
+        <v>6.160357733574914</v>
       </c>
       <c r="J20">
-        <v>54.53651841465334</v>
+        <v>54.53651841465329</v>
       </c>
       <c r="K20">
-        <v>41.41084652495981</v>
+        <v>41.41084652495971</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.0387955964751</v>
+        <v>20.03879559647518</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12.28791584010656</v>
+        <v>12.28791584010657</v>
       </c>
       <c r="E21">
-        <v>8.961586533762651</v>
+        <v>8.961586533762599</v>
       </c>
       <c r="F21">
         <v>89.64553822969502</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>6.253287443579334</v>
+        <v>6.253287443579289</v>
       </c>
       <c r="J21">
-        <v>59.22250822960531</v>
+        <v>59.22250822960537</v>
       </c>
       <c r="K21">
-        <v>45.02053854910966</v>
+        <v>45.02053854910969</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.01728521875749</v>
+        <v>21.01728521875752</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>13.08934877666796</v>
+        <v>13.08934877666795</v>
       </c>
       <c r="E22">
-        <v>9.376385089372638</v>
+        <v>9.376385089372659</v>
       </c>
       <c r="F22">
-        <v>95.03515977119466</v>
+        <v>95.03515977119478</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>6.340656701749174</v>
+        <v>6.340656701749155</v>
       </c>
       <c r="J22">
-        <v>62.44353151661339</v>
+        <v>62.44353151661336</v>
       </c>
       <c r="K22">
-        <v>47.50718427679674</v>
+        <v>47.50718427679669</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.49171902842001</v>
+        <v>20.49171902841999</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.65412491569349</v>
+        <v>12.6541249156935</v>
       </c>
       <c r="E23">
-        <v>9.148438560164811</v>
+        <v>9.148438560164687</v>
       </c>
       <c r="F23">
-        <v>92.11302219153207</v>
+        <v>92.11302219153156</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>6.290880672514497</v>
+        <v>6.290880672514391</v>
       </c>
       <c r="J23">
-        <v>60.70342531817744</v>
+        <v>60.70342531817715</v>
       </c>
       <c r="K23">
-        <v>46.16329034923999</v>
+        <v>46.16329034923975</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.55131824019431</v>
+        <v>18.55131824019425</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.13540637455482</v>
+        <v>11.13540637455488</v>
       </c>
       <c r="E24">
-        <v>8.400848612388273</v>
+        <v>8.400848612388165</v>
       </c>
       <c r="F24">
-        <v>81.83749834900436</v>
+        <v>81.8374983490035</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>6.159165254615695</v>
+        <v>6.15916525461556</v>
       </c>
       <c r="J24">
-        <v>54.46146532182067</v>
+        <v>54.46146532182035</v>
       </c>
       <c r="K24">
-        <v>41.35311169809286</v>
+        <v>41.35311169809261</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.46572337265689</v>
+        <v>16.46572337265686</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.625608626155932</v>
+        <v>9.62560862615593</v>
       </c>
       <c r="E25">
-        <v>7.722869596903944</v>
+        <v>7.722869596903874</v>
       </c>
       <c r="F25">
-        <v>71.54848522073991</v>
+        <v>71.54848522073971</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>6.086521034865413</v>
+        <v>6.086521034865411</v>
       </c>
       <c r="J25">
-        <v>47.99090481934591</v>
+        <v>47.99090481934575</v>
       </c>
       <c r="K25">
-        <v>36.38521806177968</v>
+        <v>36.38521806177955</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_55/res_line/loading_percent.xlsx
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.88154394418681</v>
+        <v>14.8815439441868</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -421,10 +421,10 @@
         <v>8.544915795777284</v>
       </c>
       <c r="E2">
-        <v>7.273454050221449</v>
+        <v>7.27345405022142</v>
       </c>
       <c r="F2">
-        <v>64.18082351910262</v>
+        <v>64.18082351910283</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,13 +433,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>6.065649081080973</v>
+        <v>6.065649081080998</v>
       </c>
       <c r="J2">
-        <v>43.19261203802969</v>
+        <v>43.19261203802973</v>
       </c>
       <c r="K2">
-        <v>32.71331233224996</v>
+        <v>32.71331233225</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.76184209047224</v>
+        <v>13.76184209047218</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.867754183525502</v>
+        <v>7.867754183525501</v>
       </c>
       <c r="E3">
-        <v>6.984187772075881</v>
+        <v>6.984187772076086</v>
       </c>
       <c r="F3">
-        <v>59.33446001547795</v>
+        <v>59.33446001547763</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>6.06455821154717</v>
+        <v>6.064558211547246</v>
       </c>
       <c r="J3">
-        <v>39.84672574361385</v>
+        <v>39.8467257436138</v>
       </c>
       <c r="K3">
-        <v>30.15868241774368</v>
+        <v>30.15868241774363</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.04803005174126</v>
+        <v>13.04803005174128</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.492204565171674</v>
+        <v>7.492204565171664</v>
       </c>
       <c r="E4">
-        <v>6.810878936885727</v>
+        <v>6.810878936885663</v>
       </c>
       <c r="F4">
-        <v>56.40869618497574</v>
+        <v>56.40869618497572</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>6.068760238461495</v>
+        <v>6.06876023846137</v>
       </c>
       <c r="J4">
-        <v>37.72969433519523</v>
+        <v>37.7296943351953</v>
       </c>
       <c r="K4">
-        <v>28.54465855244502</v>
+        <v>28.54465855244511</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.75010840123594</v>
+        <v>12.75010840123595</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.339928477393612</v>
+        <v>7.339928477393654</v>
       </c>
       <c r="E5">
-        <v>6.74097721249446</v>
+        <v>6.740977212494646</v>
       </c>
       <c r="F5">
-        <v>55.21251382245261</v>
+        <v>55.21251382245285</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>6.071517987412086</v>
+        <v>6.071517987412163</v>
       </c>
       <c r="J5">
-        <v>36.8493213580001</v>
+        <v>36.84932135800027</v>
       </c>
       <c r="K5">
-        <v>27.87398336449465</v>
+        <v>27.87398336449477</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.70020286363884</v>
+        <v>12.70020286363881</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.314680636701219</v>
+        <v>7.314680636701213</v>
       </c>
       <c r="E6">
-        <v>6.729404900813184</v>
+        <v>6.729404900813125</v>
       </c>
       <c r="F6">
-        <v>55.01359875140264</v>
+        <v>55.01359875140257</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>6.072034503302951</v>
+        <v>6.072034503302815</v>
       </c>
       <c r="J6">
-        <v>36.70201985372004</v>
+        <v>36.70201985371999</v>
       </c>
       <c r="K6">
-        <v>27.76179726150194</v>
+        <v>27.76179726150196</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.04404117003085</v>
+        <v>13.04404117003088</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.490148231914698</v>
+        <v>7.490148231914719</v>
       </c>
       <c r="E7">
-        <v>6.809933700784995</v>
+        <v>6.809933700784862</v>
       </c>
       <c r="F7">
-        <v>56.39258242416629</v>
+        <v>56.39258242416645</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>6.068793407593255</v>
+        <v>6.068793407593136</v>
       </c>
       <c r="J7">
-        <v>37.7178951152337</v>
+        <v>37.71789511523367</v>
       </c>
       <c r="K7">
-        <v>28.53566781287527</v>
+        <v>28.53566781287524</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.50065033443527</v>
+        <v>14.50065033443532</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.292367522315201</v>
+        <v>8.292367522315281</v>
       </c>
       <c r="E8">
-        <v>7.17257564866387</v>
+        <v>7.172575648663932</v>
       </c>
       <c r="F8">
-        <v>62.46333669775541</v>
+        <v>62.46333669775546</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>6.064140414743672</v>
+        <v>6.064140414743681</v>
       </c>
       <c r="J8">
-        <v>42.05067621413915</v>
+        <v>42.05067621413907</v>
       </c>
       <c r="K8">
-        <v>31.84090462144563</v>
+        <v>31.84090462144549</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -684,13 +684,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.12557713623157</v>
+        <v>10.12557713623163</v>
       </c>
       <c r="E9">
-        <v>7.94071199993008</v>
+        <v>7.940711999930048</v>
       </c>
       <c r="F9">
-        <v>74.95957051320516</v>
+        <v>74.95957051320552</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>6.104649304182151</v>
+        <v>6.104649304182138</v>
       </c>
       <c r="J9">
-        <v>50.16331639126547</v>
+        <v>50.16331639126563</v>
       </c>
       <c r="K9">
-        <v>38.05101379262777</v>
+        <v>38.05101379262794</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.07366814913382</v>
+        <v>19.07366814913389</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.5320168868252</v>
+        <v>11.5320168868253</v>
       </c>
       <c r="E10">
-        <v>8.589331381778914</v>
+        <v>8.589331381779095</v>
       </c>
       <c r="F10">
-        <v>84.53078560714734</v>
+        <v>84.53078560714789</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>6.187548363387011</v>
+        <v>6.187548363387093</v>
       </c>
       <c r="J10">
-        <v>56.11713300530455</v>
+        <v>56.1171330053048</v>
       </c>
       <c r="K10">
-        <v>42.62732940150385</v>
+        <v>42.62732940150399</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.94307415607296</v>
+        <v>19.94307415607289</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.21150494806002</v>
+        <v>12.21150494805993</v>
       </c>
       <c r="E11">
-        <v>8.923148977070285</v>
+        <v>8.923148977070124</v>
       </c>
       <c r="F11">
-        <v>89.12976430504712</v>
+        <v>89.12976430504659</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>6.245925633138174</v>
+        <v>6.245925633138097</v>
       </c>
       <c r="J11">
-        <v>58.91157582317911</v>
+        <v>58.91157582317879</v>
       </c>
       <c r="K11">
-        <v>44.78072439003501</v>
+        <v>44.78072439003484</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.27561394143989</v>
+        <v>20.27561394143995</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.47841638661802</v>
+        <v>12.47841638661806</v>
       </c>
       <c r="E12">
-        <v>9.05823616726483</v>
+        <v>9.058236167264861</v>
       </c>
       <c r="F12">
-        <v>90.93005293744169</v>
+        <v>90.93005293744193</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>6.272362457136865</v>
+        <v>6.272362457136875</v>
       </c>
       <c r="J12">
-        <v>59.99478789076912</v>
+        <v>59.99478789076915</v>
       </c>
       <c r="K12">
-        <v>45.61635515389349</v>
+        <v>45.61635515389352</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.20378988897784</v>
+        <v>20.20378988897786</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.4204173467476</v>
+        <v>12.42041734674768</v>
       </c>
       <c r="E13">
-        <v>9.028685518225775</v>
+        <v>9.028685518225837</v>
       </c>
       <c r="F13">
-        <v>90.53918539957016</v>
+        <v>90.53918539956996</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>6.266445292889516</v>
+        <v>6.266445292889474</v>
       </c>
       <c r="J13">
-        <v>59.76010199069147</v>
+        <v>59.76010199069146</v>
       </c>
       <c r="K13">
-        <v>45.43526758220467</v>
+        <v>45.43526758220469</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.97034563291526</v>
+        <v>19.97034563291531</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12.23324082104676</v>
+        <v>12.23324082104673</v>
       </c>
       <c r="E14">
-        <v>8.934063946446484</v>
+        <v>8.9340639464465</v>
       </c>
       <c r="F14">
-        <v>89.27651266333835</v>
+        <v>89.27651266333861</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>6.248003038548713</v>
+        <v>6.248003038548763</v>
       </c>
       <c r="J14">
         <v>59.00009179569965</v>
       </c>
       <c r="K14">
-        <v>44.84899027745784</v>
+        <v>44.84899027745782</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.82788843377243</v>
+        <v>19.82788843377248</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12.11999459774737</v>
+        <v>12.11999459774744</v>
       </c>
       <c r="E15">
-        <v>8.877360318650757</v>
+        <v>8.877360318650842</v>
       </c>
       <c r="F15">
-        <v>88.51167163399275</v>
+        <v>88.5116716339931</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>6.237324786730076</v>
       </c>
       <c r="J15">
-        <v>58.53832071766396</v>
+        <v>58.53832071766425</v>
       </c>
       <c r="K15">
-        <v>44.49289704199764</v>
+        <v>44.49289704199789</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.01714155240728</v>
+        <v>19.01714155240722</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.4886958955273</v>
+        <v>11.48869589552736</v>
       </c>
       <c r="E16">
-        <v>8.568521446701791</v>
+        <v>8.568521446701856</v>
       </c>
       <c r="F16">
-        <v>84.23688987269668</v>
+        <v>84.23688987269661</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>6.184248499480695</v>
+        <v>6.184248499480725</v>
       </c>
       <c r="J16">
-        <v>55.93717153644834</v>
+        <v>55.93717153644832</v>
       </c>
       <c r="K16">
-        <v>42.48876964407025</v>
+        <v>42.48876964407023</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.52248997943964</v>
+        <v>18.52248997943972</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.11375398037148</v>
+        <v>11.11375398037149</v>
       </c>
       <c r="E17">
-        <v>8.390688571968122</v>
+        <v>8.390688571968024</v>
       </c>
       <c r="F17">
-        <v>81.69030283117141</v>
+        <v>81.69030283117129</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>6.157732486249841</v>
+        <v>6.157732486249817</v>
       </c>
       <c r="J17">
-        <v>54.37055258787513</v>
+        <v>54.37055258787507</v>
       </c>
       <c r="K17">
-        <v>41.28318020708949</v>
+        <v>41.2831802070894</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.23822523479006</v>
+        <v>18.23822523478997</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.90151898042035</v>
+        <v>10.90151898042033</v>
       </c>
       <c r="E18">
-        <v>8.291798287470288</v>
+        <v>8.291798287470417</v>
       </c>
       <c r="F18">
         <v>80.24672951935986</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>6.144316098783322</v>
+        <v>6.144316098783447</v>
       </c>
       <c r="J18">
-        <v>53.47655345661963</v>
+        <v>53.4765534566197</v>
       </c>
       <c r="K18">
-        <v>40.59570170282889</v>
+        <v>40.59570170282895</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.14196064934432</v>
+        <v>18.14196064934429</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.83016002236391</v>
+        <v>10.83016002236389</v>
       </c>
       <c r="E19">
-        <v>8.258830506800496</v>
+        <v>8.258830506800564</v>
       </c>
       <c r="F19">
-        <v>79.76106646550079</v>
+        <v>79.76106646550075</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>6.140058508518995</v>
+        <v>6.140058508519022</v>
       </c>
       <c r="J19">
-        <v>53.17479165860999</v>
+        <v>53.17479165860998</v>
       </c>
       <c r="K19">
-        <v>40.36373107708896</v>
+        <v>40.36373107708895</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.57510624377387</v>
+        <v>18.57510624377384</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.15329128779803</v>
+        <v>11.15329128779809</v>
       </c>
       <c r="E20">
-        <v>8.409250839570005</v>
+        <v>8.409250839569921</v>
       </c>
       <c r="F20">
-        <v>81.95907048399019</v>
+        <v>81.95907048399022</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>6.160357733574914</v>
+        <v>6.160357733574787</v>
       </c>
       <c r="J20">
-        <v>54.53651841465329</v>
+        <v>54.53651841465334</v>
       </c>
       <c r="K20">
-        <v>41.41084652495971</v>
+        <v>41.41084652495981</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.03879559647518</v>
+        <v>20.0387955964751</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12.28791584010657</v>
+        <v>12.28791584010656</v>
       </c>
       <c r="E21">
-        <v>8.961586533762599</v>
+        <v>8.961586533762651</v>
       </c>
       <c r="F21">
         <v>89.64553822969502</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>6.253287443579289</v>
+        <v>6.253287443579334</v>
       </c>
       <c r="J21">
-        <v>59.22250822960537</v>
+        <v>59.22250822960531</v>
       </c>
       <c r="K21">
-        <v>45.02053854910969</v>
+        <v>45.02053854910966</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.01728521875752</v>
+        <v>21.01728521875749</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>13.08934877666795</v>
+        <v>13.08934877666796</v>
       </c>
       <c r="E22">
-        <v>9.376385089372659</v>
+        <v>9.376385089372638</v>
       </c>
       <c r="F22">
-        <v>95.03515977119478</v>
+        <v>95.03515977119466</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>6.340656701749155</v>
+        <v>6.340656701749174</v>
       </c>
       <c r="J22">
-        <v>62.44353151661336</v>
+        <v>62.44353151661339</v>
       </c>
       <c r="K22">
-        <v>47.50718427679669</v>
+        <v>47.50718427679674</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.49171902841999</v>
+        <v>20.49171902842001</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.6541249156935</v>
+        <v>12.65412491569349</v>
       </c>
       <c r="E23">
-        <v>9.148438560164687</v>
+        <v>9.148438560164811</v>
       </c>
       <c r="F23">
-        <v>92.11302219153156</v>
+        <v>92.11302219153207</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>6.290880672514391</v>
+        <v>6.290880672514497</v>
       </c>
       <c r="J23">
-        <v>60.70342531817715</v>
+        <v>60.70342531817744</v>
       </c>
       <c r="K23">
-        <v>46.16329034923975</v>
+        <v>46.16329034923999</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.55131824019425</v>
+        <v>18.55131824019431</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.13540637455488</v>
+        <v>11.13540637455482</v>
       </c>
       <c r="E24">
-        <v>8.400848612388165</v>
+        <v>8.400848612388273</v>
       </c>
       <c r="F24">
-        <v>81.8374983490035</v>
+        <v>81.83749834900436</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>6.15916525461556</v>
+        <v>6.159165254615695</v>
       </c>
       <c r="J24">
-        <v>54.46146532182035</v>
+        <v>54.46146532182067</v>
       </c>
       <c r="K24">
-        <v>41.35311169809261</v>
+        <v>41.35311169809286</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.46572337265686</v>
+        <v>16.46572337265689</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.62560862615593</v>
+        <v>9.625608626155932</v>
       </c>
       <c r="E25">
-        <v>7.722869596903874</v>
+        <v>7.722869596903944</v>
       </c>
       <c r="F25">
-        <v>71.54848522073971</v>
+        <v>71.54848522073991</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>6.086521034865411</v>
+        <v>6.086521034865413</v>
       </c>
       <c r="J25">
-        <v>47.99090481934575</v>
+        <v>47.99090481934591</v>
       </c>
       <c r="K25">
-        <v>36.38521806177955</v>
+        <v>36.38521806177968</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_55/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.8815439441868</v>
+        <v>14.83041461306391</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.544915795777284</v>
+        <v>8.494132812749763</v>
       </c>
       <c r="E2">
-        <v>7.27345405022142</v>
+        <v>7.003444372609782</v>
       </c>
       <c r="F2">
-        <v>64.18082351910283</v>
+        <v>63.97183942744299</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.964352642840645</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>6.065649081080998</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>43.19261203802973</v>
+        <v>5.975964788658274</v>
       </c>
       <c r="K2">
-        <v>32.71331233225</v>
+        <v>42.85183541527446</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>32.47497181814293</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.76184209047218</v>
+        <v>13.71568988399435</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.867754183525501</v>
+        <v>7.896680189395417</v>
       </c>
       <c r="E3">
-        <v>6.984187772076086</v>
+        <v>6.71221272519182</v>
       </c>
       <c r="F3">
-        <v>59.33446001547763</v>
+        <v>59.29017182665338</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.991087948838146</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>6.064558211547246</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>39.8467257436138</v>
+        <v>5.974536015940749</v>
       </c>
       <c r="K3">
-        <v>30.15868241774363</v>
+        <v>39.52721807873095</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>29.93603139229285</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.04803005174128</v>
+        <v>13.00496377315593</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.492204565171664</v>
+        <v>7.535473154613298</v>
       </c>
       <c r="E4">
-        <v>6.810878936885663</v>
+        <v>6.537269139300901</v>
       </c>
       <c r="F4">
-        <v>56.40869618497572</v>
+        <v>56.41957611604417</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.007347295873558</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>6.06876023846137</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>37.7296943351953</v>
+        <v>5.978445749422715</v>
       </c>
       <c r="K4">
-        <v>28.54465855244511</v>
+        <v>37.42290372714682</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>28.33132900469239</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.75010840123595</v>
+        <v>12.70832005885689</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.339928477393654</v>
+        <v>7.389335958260999</v>
       </c>
       <c r="E5">
-        <v>6.740977212494646</v>
+        <v>6.466606916771851</v>
       </c>
       <c r="F5">
-        <v>55.21251382245285</v>
+        <v>55.2468643701451</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.013961538931496</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>6.071517987412163</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>36.84932135800027</v>
+        <v>5.981067499095054</v>
       </c>
       <c r="K5">
-        <v>27.87398336449477</v>
+        <v>36.54768080540488</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>27.66441398853072</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.70020286363881</v>
+        <v>12.65862829402497</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.314680636701213</v>
+        <v>7.365125783940289</v>
       </c>
       <c r="E6">
-        <v>6.729404900813125</v>
+        <v>6.454902963563621</v>
       </c>
       <c r="F6">
-        <v>55.01359875140257</v>
+        <v>55.05191015207173</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.015059840474937</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>6.072034503302815</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>36.70201985371999</v>
+        <v>5.98156051637166</v>
       </c>
       <c r="K6">
-        <v>27.76179726150196</v>
+        <v>36.40123384765513</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>27.55285092036787</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.04404117003088</v>
+        <v>13.00099202797357</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.490148231914719</v>
+        <v>7.533498396148606</v>
       </c>
       <c r="E7">
-        <v>6.809933700784862</v>
+        <v>6.536314013294106</v>
       </c>
       <c r="F7">
-        <v>56.39258242416645</v>
+        <v>56.40377470682362</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.007436511973577</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>6.068793407593136</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>37.71789511523367</v>
+        <v>5.978477147943111</v>
       </c>
       <c r="K7">
-        <v>28.53566781287524</v>
+        <v>37.41117403157266</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>28.32238908613546</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.50065033443532</v>
+        <v>14.45123939088237</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.292367522315281</v>
+        <v>8.286702986423512</v>
       </c>
       <c r="E8">
-        <v>7.172575648663932</v>
+        <v>6.901986218343303</v>
       </c>
       <c r="F8">
-        <v>62.46333669775546</v>
+        <v>62.3494599306178</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.973621945523401</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>6.064140414743681</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>42.05067621413907</v>
+        <v>5.974360396909863</v>
       </c>
       <c r="K8">
-        <v>31.84090462144549</v>
+        <v>41.71734125454597</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>31.60806637283906</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.1731191694435</v>
+        <v>17.11070124429592</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.12557713623163</v>
+        <v>10.01330442202589</v>
       </c>
       <c r="E9">
-        <v>7.940711999930048</v>
+        <v>7.671808764069647</v>
       </c>
       <c r="F9">
-        <v>74.95957051320552</v>
+        <v>74.59091070907932</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.904422584177347</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>6.104649304182138</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>50.16331639126563</v>
+        <v>6.014927653993314</v>
       </c>
       <c r="K9">
-        <v>38.05101379262794</v>
+        <v>49.77153395693694</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>37.77467305757705</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.07366814913389</v>
+        <v>18.99965280287167</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.5320168868253</v>
+        <v>11.39759132604651</v>
       </c>
       <c r="E10">
-        <v>8.589331381779095</v>
+        <v>8.317010716788014</v>
       </c>
       <c r="F10">
-        <v>84.53078560714789</v>
+        <v>84.01575584403847</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.848496152794477</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>6.187548363387093</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>56.1171330053048</v>
+        <v>6.096437858371378</v>
       </c>
       <c r="K10">
-        <v>42.62732940150399</v>
+        <v>55.67015337516455</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>42.30947640595593</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.94307415607289</v>
+        <v>19.86254006514486</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.21150494805993</v>
+        <v>12.06514927815238</v>
       </c>
       <c r="E11">
-        <v>8.923148977070124</v>
+        <v>8.647240381663901</v>
       </c>
       <c r="F11">
-        <v>89.12976430504659</v>
+        <v>88.53783843022521</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.820679084691829</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>6.245925633138097</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>58.91157582317879</v>
+        <v>6.153445462459207</v>
       </c>
       <c r="K11">
-        <v>44.78072439003484</v>
+        <v>58.43273953386742</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>44.43879686894903</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.27561394143995</v>
+        <v>20.19229224398039</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.47841638661806</v>
+        <v>12.32704334417639</v>
       </c>
       <c r="E12">
-        <v>9.058236167264861</v>
+        <v>8.780490212094804</v>
       </c>
       <c r="F12">
-        <v>90.93005293744193</v>
+        <v>90.30612611183101</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.809621408382494</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>6.272362457136875</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>59.99478789076915</v>
+        <v>6.179178806279862</v>
       </c>
       <c r="K12">
-        <v>45.61635515389352</v>
+        <v>59.50219159518999</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>45.26401030977651</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.20378988897786</v>
+        <v>20.12108628725431</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.42041734674768</v>
+        <v>12.27015297375543</v>
       </c>
       <c r="E13">
-        <v>9.028685518225837</v>
+        <v>8.751361346620232</v>
       </c>
       <c r="F13">
-        <v>90.53918539956996</v>
+        <v>89.92231375079109</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.812030242756949</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>6.266445292889474</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>59.76010199069146</v>
+        <v>6.173423394714004</v>
       </c>
       <c r="K13">
-        <v>45.43526758220469</v>
+        <v>59.27056301934569</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>45.08523819900799</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.97034563291531</v>
+        <v>19.88958982104916</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12.23324082104673</v>
+        <v>12.08648440672155</v>
       </c>
       <c r="E14">
-        <v>8.9340639464465</v>
+        <v>8.658015431823172</v>
       </c>
       <c r="F14">
-        <v>89.27651266333861</v>
+        <v>88.68202389771939</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.819781282838572</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>6.248003038548763</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>59.00009179569965</v>
+        <v>6.155469393688644</v>
       </c>
       <c r="K14">
-        <v>44.84899027745782</v>
+        <v>58.52016381038495</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>44.50623663170781</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.82788843377248</v>
+        <v>19.74827806056961</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12.11999459774744</v>
+        <v>11.97531175987274</v>
       </c>
       <c r="E15">
-        <v>8.877360318650842</v>
+        <v>8.602022651165536</v>
       </c>
       <c r="F15">
-        <v>88.5116716339931</v>
+        <v>87.93045749860599</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.82445363521202</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>6.237324786730076</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>58.53832071766425</v>
+        <v>6.145062675724946</v>
       </c>
       <c r="K15">
-        <v>44.49289704199789</v>
+        <v>58.0640272122296</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>44.15440648126383</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.01714155240722</v>
+        <v>18.94351747926654</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.48869589552736</v>
+        <v>11.35499649919046</v>
       </c>
       <c r="E16">
-        <v>8.568521446701856</v>
+        <v>8.296381561265227</v>
       </c>
       <c r="F16">
-        <v>84.23688987269661</v>
+        <v>83.72658043903211</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.850252785172029</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>6.184248499480725</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>55.93717153644832</v>
+        <v>6.093207264168623</v>
       </c>
       <c r="K16">
-        <v>42.48876964407023</v>
+        <v>55.49208781494595</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>42.17234719188425</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.52248997943972</v>
+        <v>18.45214865117331</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.11375398037149</v>
+        <v>10.98619899199255</v>
       </c>
       <c r="E17">
-        <v>8.390688571968024</v>
+        <v>8.119896570448454</v>
       </c>
       <c r="F17">
-        <v>81.69030283117129</v>
+        <v>81.22013282708666</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.865368713777973</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>6.157732486249817</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>54.37055258787507</v>
+        <v>6.067212021538801</v>
       </c>
       <c r="K17">
-        <v>41.2831802070894</v>
+        <v>53.94129262111377</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>40.97868603192845</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.23822523478997</v>
+        <v>18.16966690134387</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.90151898042033</v>
+        <v>10.77734331741957</v>
       </c>
       <c r="E18">
-        <v>8.291798287470417</v>
+        <v>8.021606018716678</v>
       </c>
       <c r="F18">
-        <v>80.24672951935986</v>
+        <v>79.79879336477866</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.8738540060226</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>6.144316098783447</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>53.4765534566197</v>
+        <v>6.054032433133019</v>
       </c>
       <c r="K18">
-        <v>40.59570170282895</v>
+        <v>53.0558213119855</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>40.29762676395163</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.14196064934429</v>
+        <v>18.07399073804771</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.83016002236389</v>
+        <v>10.70710662651321</v>
       </c>
       <c r="E19">
-        <v>8.258830506800564</v>
+        <v>7.988814773208924</v>
       </c>
       <c r="F19">
-        <v>79.76106646550075</v>
+        <v>79.32053991906925</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.876695222205066</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>6.140058508519022</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>53.17479165860998</v>
+        <v>6.049845769701507</v>
       </c>
       <c r="K19">
-        <v>40.36373107708895</v>
+        <v>52.75686273814887</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>40.06776469984544</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.57510624377384</v>
+        <v>18.50442704989986</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.15329128779809</v>
+        <v>11.02509941364941</v>
       </c>
       <c r="E20">
-        <v>8.409250839569921</v>
+        <v>8.138334439301762</v>
       </c>
       <c r="F20">
-        <v>81.95907048399022</v>
+        <v>81.48472298277748</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.863782254671995</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>6.160357733574787</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>54.53651841465334</v>
+        <v>6.06978871170311</v>
       </c>
       <c r="K20">
-        <v>41.41084652495981</v>
+        <v>54.10563697885383</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>41.10513104048082</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.0387955964751</v>
+        <v>19.95747803269781</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12.28791584010656</v>
+        <v>12.14014543120963</v>
       </c>
       <c r="E21">
-        <v>8.961586533762651</v>
+        <v>8.685178613079952</v>
       </c>
       <c r="F21">
-        <v>89.64553822969502</v>
+        <v>89.04457011079845</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.817520809715757</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>6.253287443579334</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>59.22250822960531</v>
+        <v>6.160616373777261</v>
       </c>
       <c r="K21">
-        <v>45.02053854910966</v>
+        <v>58.73981214323852</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>44.67568989033693</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.01728521875749</v>
+        <v>20.92697667562113</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>13.08934877666796</v>
+        <v>12.92557578526628</v>
       </c>
       <c r="E22">
-        <v>9.376385089372638</v>
+        <v>9.093353381742924</v>
       </c>
       <c r="F22">
-        <v>95.03515977119466</v>
+        <v>94.33288828283136</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.784053363319086</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>6.340656701749174</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>62.44353151661339</v>
+        <v>6.245430957772221</v>
       </c>
       <c r="K22">
-        <v>47.50718427679674</v>
+        <v>61.9161539981637</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>47.12846884606537</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.49171902842001</v>
+        <v>20.40648008740416</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.65412491569349</v>
+        <v>12.49932592133004</v>
       </c>
       <c r="E23">
-        <v>9.148438560164811</v>
+        <v>8.86933451057482</v>
       </c>
       <c r="F23">
-        <v>92.11302219153207</v>
+        <v>91.46734859941617</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.802303809988336</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>6.290880672514497</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>60.70342531817744</v>
+        <v>6.197175026977866</v>
       </c>
       <c r="K23">
-        <v>46.16329034923999</v>
+        <v>60.20132406946193</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>45.80374408387149</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.55131824019431</v>
+        <v>18.48079211155688</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.13540637455482</v>
+        <v>11.0075028991245</v>
       </c>
       <c r="E24">
-        <v>8.400848612388273</v>
+        <v>8.129988987068749</v>
       </c>
       <c r="F24">
-        <v>81.83749834900436</v>
+        <v>81.36504203260847</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.864500119435194</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>6.159165254615695</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>54.46146532182067</v>
+        <v>6.068618375613504</v>
       </c>
       <c r="K24">
-        <v>41.35311169809286</v>
+        <v>54.03131868115234</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>41.04794969917091</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.46572337265689</v>
+        <v>16.40701278621476</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.625608626155932</v>
+        <v>9.52075515414464</v>
       </c>
       <c r="E25">
-        <v>7.722869596903944</v>
+        <v>7.454118103912645</v>
       </c>
       <c r="F25">
-        <v>71.54848522073991</v>
+        <v>71.23004542273222</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.923727270039413</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>6.086521034865413</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>47.99090481934591</v>
+        <v>5.996948874606738</v>
       </c>
       <c r="K25">
-        <v>36.38521806177968</v>
+        <v>47.61623239903287</v>
       </c>
       <c r="L25">
+        <v>36.12167280977231</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_55/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.83041461306391</v>
+        <v>19.89651182341927</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.494132812749763</v>
+        <v>9.348011167415658</v>
       </c>
       <c r="E2">
-        <v>7.003444372609782</v>
+        <v>47.05681673912546</v>
       </c>
       <c r="F2">
-        <v>63.97183942744299</v>
+        <v>66.95725331421276</v>
       </c>
       <c r="G2">
-        <v>1.964352642840645</v>
+        <v>1.915321642005477</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.975964788658274</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>42.85183541527446</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>32.47497181814293</v>
+        <v>14.07173997496725</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>17.26085309075019</v>
+      </c>
+      <c r="N2">
+        <v>12.53853151531655</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.71568988399435</v>
+        <v>18.66742325500396</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.896680189395417</v>
+        <v>8.69551661665542</v>
       </c>
       <c r="E3">
-        <v>6.71221272519182</v>
+        <v>43.39269615928352</v>
       </c>
       <c r="F3">
-        <v>59.29017182665338</v>
+        <v>61.53689226038704</v>
       </c>
       <c r="G3">
-        <v>1.991087948838146</v>
+        <v>1.946558215362696</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.974536015940749</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>39.52721807873095</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>29.93603139229285</v>
+        <v>12.97547018808686</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>15.93005312605804</v>
+      </c>
+      <c r="N3">
+        <v>12.97032810394191</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.00496377315593</v>
+        <v>17.90226610102768</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.535473154613298</v>
+        <v>8.305029549378457</v>
       </c>
       <c r="E4">
-        <v>6.537269139300901</v>
+        <v>41.10684632113089</v>
       </c>
       <c r="F4">
-        <v>56.41957611604417</v>
+        <v>58.18947951557926</v>
       </c>
       <c r="G4">
-        <v>2.007347295873558</v>
+        <v>1.96538614142709</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.978445749422715</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>37.42290372714682</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>28.33132900469239</v>
+        <v>12.28432937559855</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>15.08733248855372</v>
+      </c>
+      <c r="N4">
+        <v>13.23112363454014</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.70832005885689</v>
+        <v>17.58757856312343</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.389335958260999</v>
+        <v>8.147915609165461</v>
       </c>
       <c r="E5">
-        <v>6.466606916771851</v>
+        <v>40.16305333904649</v>
       </c>
       <c r="F5">
-        <v>55.2468643701451</v>
+        <v>56.81639233250376</v>
       </c>
       <c r="G5">
-        <v>2.013961538931496</v>
+        <v>1.973013130442893</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.981067499095054</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>36.54768080540488</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>27.66441398853072</v>
+        <v>11.99740776058763</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>14.73670107634594</v>
+      </c>
+      <c r="N5">
+        <v>13.33677624177222</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.65862829402497</v>
+        <v>17.53514754020596</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.365125783940289</v>
+        <v>8.121936440811158</v>
       </c>
       <c r="E6">
-        <v>6.454902963563621</v>
+        <v>40.00551524758352</v>
       </c>
       <c r="F6">
-        <v>55.05191015207173</v>
+        <v>56.58775199244238</v>
       </c>
       <c r="G6">
-        <v>2.015059840474937</v>
+        <v>1.974277906121824</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.98156051637166</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>36.40123384765513</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>27.55285092036787</v>
+        <v>11.9494272681747</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>14.69288313617059</v>
+      </c>
+      <c r="N6">
+        <v>13.35429382093379</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.00099202797357</v>
+        <v>17.89803395604309</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.533498396148606</v>
+        <v>8.30290307591876</v>
       </c>
       <c r="E7">
-        <v>6.536314013294106</v>
+        <v>41.09417145570651</v>
       </c>
       <c r="F7">
-        <v>56.40377470682362</v>
+        <v>58.17100253241993</v>
       </c>
       <c r="G7">
-        <v>2.007436511973577</v>
+        <v>1.965489136545232</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.978477147943111</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>37.41117403157266</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>28.32238908613546</v>
+        <v>12.28048207800994</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>15.08263387618481</v>
+      </c>
+      <c r="N7">
+        <v>13.23255048661304</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.45123939088237</v>
+        <v>19.47468985477594</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.286702986423512</v>
+        <v>9.120531706219799</v>
       </c>
       <c r="E8">
-        <v>6.901986218343303</v>
+        <v>45.7986979530729</v>
       </c>
       <c r="F8">
-        <v>62.3494599306178</v>
+        <v>65.0893865866702</v>
       </c>
       <c r="G8">
-        <v>1.973621945523401</v>
+        <v>1.926194205000395</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.974360396909863</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>41.71734125454597</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>31.60806637283906</v>
+        <v>13.69698276606126</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>16.80678092695058</v>
+      </c>
+      <c r="N8">
+        <v>12.68862915837001</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.11070124429592</v>
+        <v>22.83162252449837</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.01330442202589</v>
+        <v>11.09242889883724</v>
       </c>
       <c r="E9">
-        <v>7.671808764069647</v>
+        <v>54.94587918072187</v>
       </c>
       <c r="F9">
-        <v>74.59091070907932</v>
+        <v>78.78618361425738</v>
       </c>
       <c r="G9">
-        <v>1.904422584177347</v>
+        <v>1.843629282738066</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.014927653993314</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>49.77153395693694</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>37.77467305757705</v>
+        <v>16.37825119583574</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>20.03296954311692</v>
+      </c>
+      <c r="N9">
+        <v>11.55861734745288</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.99965280287167</v>
+        <v>25.39821776476748</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.39759132604651</v>
+        <v>12.71272996175256</v>
       </c>
       <c r="E10">
-        <v>8.317010716788014</v>
+        <v>62.09342690054479</v>
       </c>
       <c r="F10">
-        <v>84.01575584403847</v>
+        <v>89.5935503137548</v>
       </c>
       <c r="G10">
-        <v>1.848496152794477</v>
+        <v>1.773478834781104</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.096437858371378</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>55.67015337516455</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>42.30947640595593</v>
+        <v>18.39289901151021</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>22.41534022585229</v>
+      </c>
+      <c r="N10">
+        <v>10.62568789242922</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.86254006514486</v>
+        <v>26.60530034803254</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.06514927815238</v>
+        <v>13.52933464825835</v>
       </c>
       <c r="E11">
-        <v>8.647240381663901</v>
+        <v>65.66008057404888</v>
       </c>
       <c r="F11">
-        <v>88.53783843022521</v>
+        <v>94.98575929245628</v>
       </c>
       <c r="G11">
-        <v>1.820679084691829</v>
+        <v>1.73666895202545</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.153445462459207</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>58.43273953386742</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>44.43879686894903</v>
+        <v>19.36639118091855</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>23.54996328928737</v>
+      </c>
+      <c r="N11">
+        <v>10.15010175715414</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.19229224398039</v>
+        <v>27.07550828463746</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.32704334417639</v>
+        <v>13.85934806970173</v>
       </c>
       <c r="E12">
-        <v>8.780490212094804</v>
+        <v>67.09606322858413</v>
       </c>
       <c r="F12">
-        <v>90.30612611183101</v>
+        <v>97.15246626293428</v>
       </c>
       <c r="G12">
-        <v>1.809621408382494</v>
+        <v>1.72151857286744</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.179178806279862</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>59.50219159518999</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>45.26401030977651</v>
+        <v>19.75161700590688</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>23.99544076897022</v>
+      </c>
+      <c r="N12">
+        <v>9.95758423048297</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.12108628725431</v>
+        <v>26.9734640394515</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.27015297375543</v>
+        <v>13.7871035964399</v>
       </c>
       <c r="E13">
-        <v>8.751361346620232</v>
+        <v>66.78194883597952</v>
       </c>
       <c r="F13">
-        <v>89.92231375079109</v>
+        <v>96.67879981624307</v>
       </c>
       <c r="G13">
-        <v>1.812030242756949</v>
+        <v>1.724848630573402</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.173423394714004</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>59.27056301934569</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>45.08523819900799</v>
+        <v>19.66769499821197</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>23.89857391530065</v>
+      </c>
+      <c r="N13">
+        <v>9.99973020903286</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.88958982104916</v>
+        <v>26.64365550481753</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12.08648440672155</v>
+        <v>13.55598427154733</v>
       </c>
       <c r="E14">
-        <v>8.658015431823172</v>
+        <v>65.77614791122028</v>
       </c>
       <c r="F14">
-        <v>88.68202389771939</v>
+        <v>95.16100808461591</v>
       </c>
       <c r="G14">
-        <v>1.819781282838572</v>
+        <v>1.735451350300654</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.155469393688644</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>58.52016381038495</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>44.50623663170781</v>
+        <v>19.3976764099145</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>23.58621988399286</v>
+      </c>
+      <c r="N14">
+        <v>10.13455728330874</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.74827806056961</v>
+        <v>26.44367452578993</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.97531175987274</v>
+        <v>13.41754057112925</v>
       </c>
       <c r="E15">
-        <v>8.602022651165536</v>
+        <v>65.17296951471427</v>
       </c>
       <c r="F15">
-        <v>87.93045749860599</v>
+        <v>94.25007610353516</v>
       </c>
       <c r="G15">
-        <v>1.82445363521202</v>
+        <v>1.741765535028424</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.145062675724946</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>58.0640272122296</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>44.15440648126383</v>
+        <v>19.23481422077058</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>23.3973309463019</v>
+      </c>
+      <c r="N15">
+        <v>10.21530149847351</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.94351747926654</v>
+        <v>25.32063646953458</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.35499649919046</v>
+        <v>12.66160009794294</v>
       </c>
       <c r="E16">
-        <v>8.296381561265227</v>
+        <v>61.86940903247483</v>
       </c>
       <c r="F16">
-        <v>83.72658043903211</v>
+        <v>89.25458075542984</v>
       </c>
       <c r="G16">
-        <v>1.850252785172029</v>
+        <v>1.775751263291421</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.093207264168623</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>55.49208781494595</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>42.17234719188425</v>
+        <v>18.33100009108653</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>22.3427962325745</v>
+      </c>
+      <c r="N16">
+        <v>10.65539082917419</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.45214865117331</v>
+        <v>24.64552927248364</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.98619899199255</v>
+        <v>12.22285837306537</v>
       </c>
       <c r="E17">
-        <v>8.119896570448454</v>
+        <v>59.94337065957628</v>
       </c>
       <c r="F17">
-        <v>81.22013282708666</v>
+        <v>86.33992419873321</v>
       </c>
       <c r="G17">
-        <v>1.865368713777973</v>
+        <v>1.795093567989147</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.067212021538801</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>53.94129262111377</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>40.97868603192845</v>
+        <v>17.79532918913046</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>21.71315730092599</v>
+      </c>
+      <c r="N17">
+        <v>10.90971778684185</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.16966690134387</v>
+        <v>24.26032384972221</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.77734331741957</v>
+        <v>11.97720574896304</v>
       </c>
       <c r="E18">
-        <v>8.021606018716678</v>
+        <v>58.86186988349608</v>
       </c>
       <c r="F18">
-        <v>79.79879336477866</v>
+        <v>84.70355273764116</v>
       </c>
       <c r="G18">
-        <v>1.8738540060226</v>
+        <v>1.805800216618256</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.054032433133019</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>53.0558213119855</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>40.29762676395163</v>
+        <v>17.49189038912949</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>21.35508274951302</v>
+      </c>
+      <c r="N18">
+        <v>11.0516041966742</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.07399073804771</v>
+        <v>24.13028693366256</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.70710662651321</v>
+        <v>11.89500221645786</v>
       </c>
       <c r="E19">
-        <v>7.988814773208924</v>
+        <v>58.4994370608351</v>
       </c>
       <c r="F19">
-        <v>79.32053991906925</v>
+        <v>84.15529366520482</v>
       </c>
       <c r="G19">
-        <v>1.876695222205066</v>
+        <v>1.809363256089285</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.049845769701507</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>52.75686273814887</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>40.06776469984544</v>
+        <v>17.38978911196844</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>21.23437898232524</v>
+      </c>
+      <c r="N19">
+        <v>11.09898890051885</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.50442704989986</v>
+        <v>24.7170382397865</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.02509941364941</v>
+        <v>12.26882407175563</v>
       </c>
       <c r="E20">
-        <v>8.138334439301762</v>
+        <v>60.14548252248798</v>
       </c>
       <c r="F20">
-        <v>81.48472298277748</v>
+        <v>86.64577174191945</v>
       </c>
       <c r="G20">
-        <v>1.863782254671995</v>
+        <v>1.793080350743408</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.06978871170311</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>54.10563697885383</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>41.10513104048082</v>
+        <v>17.85182818698444</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>21.77971950289504</v>
+      </c>
+      <c r="N20">
+        <v>10.8831242813935</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.95747803269781</v>
+        <v>26.74008006401646</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12.14014543120963</v>
+        <v>13.62318830469787</v>
       </c>
       <c r="E21">
-        <v>8.685178613079952</v>
+        <v>66.06875682996386</v>
       </c>
       <c r="F21">
-        <v>89.04457011079845</v>
+        <v>95.60272856725646</v>
       </c>
       <c r="G21">
-        <v>1.817520809715757</v>
+        <v>1.732376285556013</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.160616373777261</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>58.73981214323852</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>44.67568989033693</v>
+        <v>19.47643271715335</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>23.67743063796368</v>
+      </c>
+      <c r="N21">
+        <v>10.0953552078223</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.92697667562113</v>
+        <v>28.14898211978045</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.92557578526628</v>
+        <v>14.64270824476674</v>
       </c>
       <c r="E22">
-        <v>9.093353381742924</v>
+        <v>70.49418717000577</v>
       </c>
       <c r="F22">
-        <v>94.33288828283136</v>
+        <v>102.2631660181037</v>
       </c>
       <c r="G22">
-        <v>1.784053363319086</v>
+        <v>1.684930611449957</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.245430957772221</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>61.9161539981637</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>47.12846884606537</v>
+        <v>20.64659476509417</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>25.02174012956346</v>
+      </c>
+      <c r="N22">
+        <v>9.501110962414366</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.40648008740416</v>
+        <v>27.38434245335675</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.49932592133004</v>
+        <v>14.0802180284597</v>
       </c>
       <c r="E23">
-        <v>8.86933451057482</v>
+        <v>68.05559144097229</v>
       </c>
       <c r="F23">
-        <v>91.46734859941617</v>
+        <v>98.59822592770908</v>
       </c>
       <c r="G23">
-        <v>1.802303809988336</v>
+        <v>1.711291203692443</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.197175026977866</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>60.20132406946193</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>45.80374408387149</v>
+        <v>20.00675303672717</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>24.28929013825889</v>
+      </c>
+      <c r="N23">
+        <v>9.828755533148865</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.48079211155688</v>
+        <v>24.68470038348826</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.0075028991245</v>
+        <v>12.24802303018119</v>
       </c>
       <c r="E24">
-        <v>8.129988987068749</v>
+        <v>60.05402979144969</v>
       </c>
       <c r="F24">
-        <v>81.36504203260847</v>
+        <v>86.50737905634107</v>
       </c>
       <c r="G24">
-        <v>1.864500119435194</v>
+        <v>1.793991783546021</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.068618375613504</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>54.03131868115234</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>41.04794969917091</v>
+        <v>17.8262714023765</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>21.74961505879157</v>
+      </c>
+      <c r="N24">
+        <v>10.8951603825661</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.40701278621476</v>
+        <v>21.89335709845158</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.52075515414464</v>
+        <v>10.53128987974596</v>
       </c>
       <c r="E25">
-        <v>7.454118103912645</v>
+        <v>52.4434426365355</v>
       </c>
       <c r="F25">
-        <v>71.23004542273222</v>
+        <v>75.01665738809037</v>
       </c>
       <c r="G25">
-        <v>1.923727270039413</v>
+        <v>1.867026600227455</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,15 +1526,21 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.996948874606738</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>47.61623239903287</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>36.12167280977231</v>
+        <v>15.65520125829545</v>
       </c>
       <c r="M25">
+        <v>19.16848394540776</v>
+      </c>
+      <c r="N25">
+        <v>11.87609441403013</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_55/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.89651182341927</v>
+        <v>15.54726893961997</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.348011167415658</v>
+        <v>2.36409263128489</v>
       </c>
       <c r="E2">
-        <v>47.05681673912546</v>
+        <v>6.463554867140436</v>
       </c>
       <c r="F2">
-        <v>66.95725331421276</v>
+        <v>41.51250473812706</v>
       </c>
       <c r="G2">
-        <v>1.915321642005477</v>
+        <v>2.149259997280472</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.259581662754153</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>17.13858501014893</v>
       </c>
       <c r="L2">
-        <v>14.07173997496725</v>
+        <v>8.475411765416526</v>
       </c>
       <c r="M2">
-        <v>17.26085309075019</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.53853151531655</v>
+        <v>17.60870678074269</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.66742325500396</v>
+        <v>14.92576214666261</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.69551661665542</v>
+        <v>2.255515382718941</v>
       </c>
       <c r="E3">
-        <v>43.39269615928352</v>
+        <v>6.416087708938306</v>
       </c>
       <c r="F3">
-        <v>61.53689226038704</v>
+        <v>40.60410605023465</v>
       </c>
       <c r="G3">
-        <v>1.946558215362696</v>
+        <v>2.159280045634808</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.273713866979175</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.23093132947468</v>
       </c>
       <c r="L3">
-        <v>12.97547018808686</v>
+        <v>8.202614842398493</v>
       </c>
       <c r="M3">
-        <v>15.93005312605804</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.97032810394191</v>
+        <v>17.7400940004187</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.90226610102768</v>
+        <v>14.54184577880094</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.305029549378457</v>
+        <v>2.188065517343098</v>
       </c>
       <c r="E4">
-        <v>41.10684632113089</v>
+        <v>6.387618372352937</v>
       </c>
       <c r="F4">
-        <v>58.18947951557926</v>
+        <v>40.06714067036066</v>
       </c>
       <c r="G4">
-        <v>1.96538614142709</v>
+        <v>2.16558900348945</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.282949569070384</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.66146716812454</v>
       </c>
       <c r="L4">
-        <v>12.28432937559855</v>
+        <v>8.036748666733335</v>
       </c>
       <c r="M4">
-        <v>15.08733248855372</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>13.23112363454014</v>
+        <v>17.82561912267149</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.58757856312343</v>
+        <v>14.38502177192329</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.147915609165461</v>
+        <v>2.160367300456555</v>
       </c>
       <c r="E5">
-        <v>40.16305333904649</v>
+        <v>6.376162476960882</v>
       </c>
       <c r="F5">
-        <v>56.81639233250376</v>
+        <v>39.85357165349949</v>
       </c>
       <c r="G5">
-        <v>1.973013130442893</v>
+        <v>2.168201356097316</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.28685072381298</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.42659891845305</v>
       </c>
       <c r="L5">
-        <v>11.99740776058763</v>
+        <v>7.969637814099843</v>
       </c>
       <c r="M5">
-        <v>14.73670107634594</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>13.33677624177222</v>
+        <v>17.86166077155444</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.53514754020596</v>
+        <v>14.35896510041262</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.121936440811158</v>
+        <v>2.155754875235511</v>
       </c>
       <c r="E6">
-        <v>40.00551524758352</v>
+        <v>6.374268355131931</v>
       </c>
       <c r="F6">
-        <v>56.58775199244238</v>
+        <v>39.81842619835085</v>
       </c>
       <c r="G6">
-        <v>1.974277906121824</v>
+        <v>2.16863769230556</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.287506735902896</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.38743811108231</v>
       </c>
       <c r="L6">
-        <v>11.9494272681747</v>
+        <v>7.958525325708823</v>
       </c>
       <c r="M6">
-        <v>14.69288313617059</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>13.35429382093379</v>
+        <v>17.86771646020703</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.89803395604309</v>
+        <v>14.53973202399179</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.30290307591876</v>
+        <v>2.187692844196755</v>
       </c>
       <c r="E7">
-        <v>41.09417145570651</v>
+        <v>6.387463315311526</v>
       </c>
       <c r="F7">
-        <v>58.17100253241993</v>
+        <v>40.06423912814265</v>
       </c>
       <c r="G7">
-        <v>1.965489136545232</v>
+        <v>2.165624064384029</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.283001628125279</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.65831064574</v>
       </c>
       <c r="L7">
-        <v>12.28048207800994</v>
+        <v>8.035841541559488</v>
       </c>
       <c r="M7">
-        <v>15.08263387618481</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>13.23255048661304</v>
+        <v>17.82610041521676</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.47468985477594</v>
+        <v>15.33356803235755</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.120531706219799</v>
+        <v>2.326807425802761</v>
       </c>
       <c r="E8">
-        <v>45.7986979530729</v>
+        <v>6.447032644947985</v>
       </c>
       <c r="F8">
-        <v>65.0893865866702</v>
+        <v>41.19498464792441</v>
       </c>
       <c r="G8">
-        <v>1.926194205000395</v>
+        <v>2.15268366725832</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.264336677933017</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.82828359347491</v>
       </c>
       <c r="L8">
-        <v>13.69698276606126</v>
+        <v>8.381052957272084</v>
       </c>
       <c r="M8">
-        <v>16.80678092695058</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>12.68862915837001</v>
+        <v>17.65298232768747</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.83162252449837</v>
+        <v>16.86430584518546</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>11.09242889883724</v>
+        <v>2.594305439801391</v>
       </c>
       <c r="E9">
-        <v>54.94587918072187</v>
+        <v>6.570427936010572</v>
       </c>
       <c r="F9">
-        <v>78.78618361425738</v>
+        <v>43.57679065689485</v>
       </c>
       <c r="G9">
-        <v>1.843629282738066</v>
+        <v>2.128450952208265</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.232317064368392</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>19.01790013865257</v>
       </c>
       <c r="L9">
-        <v>16.37825119583574</v>
+        <v>9.068252126691975</v>
       </c>
       <c r="M9">
-        <v>20.03296954311692</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>11.55861734745288</v>
+        <v>17.35356992916307</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.39821776476748</v>
+        <v>17.96494945694969</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>12.71272996175256</v>
+        <v>2.789235547851142</v>
       </c>
       <c r="E10">
-        <v>62.09342690054479</v>
+        <v>6.667007574323959</v>
       </c>
       <c r="F10">
-        <v>89.5935503137548</v>
+        <v>45.42726272231355</v>
       </c>
       <c r="G10">
-        <v>1.773478834781104</v>
+        <v>2.111192315393052</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.211832912417009</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>20.57830672760711</v>
       </c>
       <c r="L10">
-        <v>18.39289901151021</v>
+        <v>9.576461314361479</v>
       </c>
       <c r="M10">
-        <v>22.41534022585229</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>10.62568789242922</v>
+        <v>17.16050764457266</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.60530034803254</v>
+        <v>18.45933588609542</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>13.52933464825835</v>
+        <v>2.878040608888705</v>
       </c>
       <c r="E11">
-        <v>65.66008057404888</v>
+        <v>6.71272381533253</v>
       </c>
       <c r="F11">
-        <v>94.98575929245628</v>
+        <v>46.29145380939603</v>
       </c>
       <c r="G11">
-        <v>1.73666895202545</v>
+        <v>2.103421308924835</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.203242331383064</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>21.37955855500355</v>
       </c>
       <c r="L11">
-        <v>19.36639118091855</v>
+        <v>9.807996305204982</v>
       </c>
       <c r="M11">
-        <v>23.54996328928737</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>10.15010175715414</v>
+        <v>17.07917958604303</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.07550828463746</v>
+        <v>18.64558779785403</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>13.85934806970173</v>
+        <v>2.9117358200999</v>
       </c>
       <c r="E12">
-        <v>67.09606322858413</v>
+        <v>6.730339243208704</v>
       </c>
       <c r="F12">
-        <v>97.15246626293428</v>
+        <v>46.62200577880454</v>
       </c>
       <c r="G12">
-        <v>1.72151857286744</v>
+        <v>2.100486588053017</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.200100879741676</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>21.67846323875913</v>
       </c>
       <c r="L12">
-        <v>19.75161700590688</v>
+        <v>9.895707735017783</v>
       </c>
       <c r="M12">
-        <v>23.99544076897022</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>9.95758423048297</v>
+        <v>17.04938164162883</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.9734640394515</v>
+        <v>18.60551843169878</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>13.7871035964399</v>
+        <v>2.904475138228999</v>
       </c>
       <c r="E13">
-        <v>66.78194883597952</v>
+        <v>6.726531114719607</v>
       </c>
       <c r="F13">
-        <v>96.67879981624307</v>
+        <v>46.5506669169379</v>
       </c>
       <c r="G13">
-        <v>1.724848630573402</v>
+        <v>2.101118337604963</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.200772359976368</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>21.61428636748994</v>
       </c>
       <c r="L13">
-        <v>19.66769499821197</v>
+        <v>9.876816086540975</v>
       </c>
       <c r="M13">
-        <v>23.89857391530065</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>9.99973020903286</v>
+        <v>17.05575359113241</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.64365550481753</v>
+        <v>18.47467842015602</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>13.55598427154733</v>
+        <v>2.880811094707745</v>
       </c>
       <c r="E14">
-        <v>65.77614791122028</v>
+        <v>6.714166666293194</v>
       </c>
       <c r="F14">
-        <v>95.16100808461591</v>
+        <v>46.31858173704517</v>
       </c>
       <c r="G14">
-        <v>1.735451350300654</v>
+        <v>2.103179729094365</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.202981601277849</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>21.40423895253584</v>
       </c>
       <c r="L14">
-        <v>19.3976764099145</v>
+        <v>9.815211731707237</v>
       </c>
       <c r="M14">
-        <v>23.58621988399286</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>10.13455728330874</v>
+        <v>17.07670766137393</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.44367452578993</v>
+        <v>18.3944088032506</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>13.41754057112925</v>
+        <v>2.866326426610595</v>
       </c>
       <c r="E15">
-        <v>65.17296951471427</v>
+        <v>6.706634150047364</v>
       </c>
       <c r="F15">
-        <v>94.25007610353516</v>
+        <v>46.17685593715875</v>
       </c>
       <c r="G15">
-        <v>1.741765535028424</v>
+        <v>2.104443320366815</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.204349587442771</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>21.27499690415588</v>
       </c>
       <c r="L15">
-        <v>19.23481422077058</v>
+        <v>9.777481511084202</v>
       </c>
       <c r="M15">
-        <v>23.3973309463019</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>10.21530149847351</v>
+        <v>17.08967484262478</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.32063646953458</v>
+        <v>17.93250790450318</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>12.66160009794294</v>
+        <v>2.783438466045298</v>
       </c>
       <c r="E16">
-        <v>61.86940903247483</v>
+        <v>6.664059679547359</v>
       </c>
       <c r="F16">
-        <v>89.25458075542984</v>
+        <v>45.37124248993839</v>
       </c>
       <c r="G16">
-        <v>1.775751263291421</v>
+        <v>2.111701487485577</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.212409540973671</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>20.52530148981211</v>
       </c>
       <c r="L16">
-        <v>18.33100009108653</v>
+        <v>9.561335273799756</v>
       </c>
       <c r="M16">
-        <v>22.3427962325745</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>10.65539082917419</v>
+        <v>17.16595871610838</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.64552927248364</v>
+        <v>17.6474835556276</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>12.22285837306537</v>
+        <v>2.732654389514301</v>
       </c>
       <c r="E17">
-        <v>59.94337065957628</v>
+        <v>6.638429810225828</v>
       </c>
       <c r="F17">
-        <v>86.33992419873321</v>
+        <v>44.88280658866519</v>
       </c>
       <c r="G17">
-        <v>1.795093567989147</v>
+        <v>2.116172253161079</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.217545062707432</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>20.11449217246684</v>
       </c>
       <c r="L17">
-        <v>17.79532918913046</v>
+        <v>9.428809867530436</v>
       </c>
       <c r="M17">
-        <v>21.71315730092599</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>10.90971778684185</v>
+        <v>17.2144639592126</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.26032384972221</v>
+        <v>17.48295331131412</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.97720574896304</v>
+        <v>2.703453678364585</v>
       </c>
       <c r="E18">
-        <v>58.86186988349608</v>
+        <v>6.623852700599711</v>
       </c>
       <c r="F18">
-        <v>84.70355273764116</v>
+        <v>44.60397269452103</v>
       </c>
       <c r="G18">
-        <v>1.805800216618256</v>
+        <v>2.11875148472105</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.220566899946759</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>19.88516459071062</v>
       </c>
       <c r="L18">
-        <v>17.49189038912949</v>
+        <v>9.352617610407766</v>
       </c>
       <c r="M18">
-        <v>21.35508274951302</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>11.0516041966742</v>
+        <v>17.24297003588079</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.13028693366256</v>
+        <v>17.42714674513762</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.89500221645786</v>
+        <v>2.693567024657781</v>
       </c>
       <c r="E19">
-        <v>58.4994370608351</v>
+        <v>6.618944050307491</v>
       </c>
       <c r="F19">
-        <v>84.15529366520482</v>
+        <v>44.50992349617178</v>
       </c>
       <c r="G19">
-        <v>1.809363256089285</v>
+        <v>2.119626202894941</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.221601530831303</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>19.80726073191162</v>
       </c>
       <c r="L19">
-        <v>17.38978911196844</v>
+        <v>9.326826582788234</v>
       </c>
       <c r="M19">
-        <v>21.23437898232524</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>11.09898890051885</v>
+        <v>17.25272414146603</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.7170382397865</v>
+        <v>17.67788662880424</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>12.26882407175563</v>
+        <v>2.738059193522803</v>
       </c>
       <c r="E20">
-        <v>60.14548252248798</v>
+        <v>6.6411408029315</v>
       </c>
       <c r="F20">
-        <v>86.64577174191945</v>
+        <v>44.93458347806644</v>
       </c>
       <c r="G20">
-        <v>1.793080350743408</v>
+        <v>2.115695553088784</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.216991290914602</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>20.15681314611463</v>
       </c>
       <c r="L20">
-        <v>17.85182818698444</v>
+        <v>9.442914184462722</v>
       </c>
       <c r="M20">
-        <v>21.77971950289504</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>10.8831242813935</v>
+        <v>17.20923721321272</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.74008006401646</v>
+        <v>18.51313568604429</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>13.62318830469787</v>
+        <v>2.887759566386499</v>
       </c>
       <c r="E21">
-        <v>66.06875682996386</v>
+        <v>6.717789752634857</v>
       </c>
       <c r="F21">
-        <v>95.60272856725646</v>
+        <v>46.38666032255009</v>
       </c>
       <c r="G21">
-        <v>1.732376285556013</v>
+        <v>2.102574061592398</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.202329603044431</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>21.46605589644304</v>
       </c>
       <c r="L21">
-        <v>19.47643271715335</v>
+        <v>9.833305551030303</v>
       </c>
       <c r="M21">
-        <v>23.67743063796368</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>10.0953552078223</v>
+        <v>17.07052526227463</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.14898211978045</v>
+        <v>19.0534111419384</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>14.64270824476674</v>
+        <v>2.986014253482955</v>
       </c>
       <c r="E22">
-        <v>70.49418717000577</v>
+        <v>6.769681180308569</v>
       </c>
       <c r="F22">
-        <v>102.2631660181037</v>
+        <v>47.3549905610664</v>
       </c>
       <c r="G22">
-        <v>1.684930611449957</v>
+        <v>2.094043054129823</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.193402034369487</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>22.32787688485488</v>
       </c>
       <c r="L22">
-        <v>20.64659476509417</v>
+        <v>10.08865126355479</v>
       </c>
       <c r="M22">
-        <v>25.02174012956346</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>9.501110962414366</v>
+        <v>16.98573002292614</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.38434245335675</v>
+        <v>18.76557937264551</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>14.0802180284597</v>
+        <v>2.933517730962876</v>
       </c>
       <c r="E23">
-        <v>68.05559144097229</v>
+        <v>6.741803927017623</v>
       </c>
       <c r="F23">
-        <v>98.59822592770908</v>
+        <v>46.83636904484301</v>
       </c>
       <c r="G23">
-        <v>1.711291203692443</v>
+        <v>2.098593397196082</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.198104324956041</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>21.87023930117564</v>
       </c>
       <c r="L23">
-        <v>20.00675303672717</v>
+        <v>9.952351318704743</v>
       </c>
       <c r="M23">
-        <v>24.28929013825889</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>9.828755533148865</v>
+        <v>17.03042670413834</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.68470038348826</v>
+        <v>17.6641434691296</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>12.24802303018119</v>
+        <v>2.735615698440285</v>
       </c>
       <c r="E24">
-        <v>60.05402979144969</v>
+        <v>6.639914674982568</v>
       </c>
       <c r="F24">
-        <v>86.50737905634107</v>
+        <v>44.91116900197181</v>
       </c>
       <c r="G24">
-        <v>1.793991783546021</v>
+        <v>2.11591104111967</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.217241435618963</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>20.13768483085104</v>
       </c>
       <c r="L24">
-        <v>17.8262714023765</v>
+        <v>9.436537626473793</v>
       </c>
       <c r="M24">
-        <v>21.74961505879157</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>10.8951603825661</v>
+        <v>17.21159829945198</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.89335709845158</v>
+        <v>16.45393407915046</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.53128987974596</v>
+        <v>2.522359895654108</v>
       </c>
       <c r="E25">
-        <v>52.4434426365355</v>
+        <v>6.536158004895308</v>
       </c>
       <c r="F25">
-        <v>75.01665738809037</v>
+        <v>42.91487283632491</v>
       </c>
       <c r="G25">
-        <v>1.867026600227455</v>
+        <v>2.13489895861162</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.240465494548981</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.43769117498558</v>
       </c>
       <c r="L25">
-        <v>15.65520125829545</v>
+        <v>8.881590747410151</v>
       </c>
       <c r="M25">
-        <v>19.16848394540776</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>11.87609441403013</v>
+        <v>17.43004214482669</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_55/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.54726893961997</v>
+        <v>20.32606987536358</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.36409263128489</v>
+        <v>4.131994058382846</v>
       </c>
       <c r="E2">
-        <v>6.463554867140436</v>
+        <v>10.30731302176281</v>
       </c>
       <c r="F2">
-        <v>41.51250473812706</v>
+        <v>54.05460082667306</v>
       </c>
       <c r="G2">
-        <v>2.149259997280472</v>
+        <v>3.784140366967575</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.259581662754153</v>
+        <v>10.02047342394592</v>
       </c>
       <c r="K2">
-        <v>17.13858501014893</v>
+        <v>19.30439556540139</v>
       </c>
       <c r="L2">
-        <v>8.475411765416526</v>
+        <v>12.46610746182074</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.60870678074269</v>
+        <v>25.47340129136326</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.92576214666261</v>
+        <v>20.26580694792097</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.255515382718941</v>
+        <v>4.111851467595956</v>
       </c>
       <c r="E3">
-        <v>6.416087708938306</v>
+        <v>10.30045843268443</v>
       </c>
       <c r="F3">
-        <v>40.60410605023465</v>
+        <v>53.99040728273752</v>
       </c>
       <c r="G3">
-        <v>2.159280045634808</v>
+        <v>3.787751041860259</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.273713866979175</v>
+        <v>10.02586367475392</v>
       </c>
       <c r="K3">
-        <v>16.23093132947468</v>
+        <v>19.16802028621895</v>
       </c>
       <c r="L3">
-        <v>8.202614842398493</v>
+        <v>12.45793808157025</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.7400940004187</v>
+        <v>25.51428359063351</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.54184577880094</v>
+        <v>20.23319296933037</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.188065517343098</v>
+        <v>4.099252662659322</v>
       </c>
       <c r="E4">
-        <v>6.387618372352937</v>
+        <v>10.29625916694828</v>
       </c>
       <c r="F4">
-        <v>40.06714067036066</v>
+        <v>53.96112625322006</v>
       </c>
       <c r="G4">
-        <v>2.16558900348945</v>
+        <v>3.790084058908104</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.282949569070384</v>
+        <v>10.02938897333782</v>
       </c>
       <c r="K4">
-        <v>15.66146716812454</v>
+        <v>19.08899155541685</v>
       </c>
       <c r="L4">
-        <v>8.036748666733335</v>
+        <v>12.45539923531187</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.82561912267149</v>
+        <v>25.54127003434116</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.38502177192329</v>
+        <v>20.22101534782628</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.160367300456555</v>
+        <v>4.094060524727016</v>
       </c>
       <c r="E5">
-        <v>6.376162476960882</v>
+        <v>10.29455004093529</v>
       </c>
       <c r="F5">
-        <v>39.85357165349949</v>
+        <v>53.95174658536413</v>
       </c>
       <c r="G5">
-        <v>2.168201356097316</v>
+        <v>3.791064070247564</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.28685072381298</v>
+        <v>10.03087988209736</v>
       </c>
       <c r="K5">
-        <v>15.42659891845305</v>
+        <v>19.05799935401901</v>
       </c>
       <c r="L5">
-        <v>7.969637814099843</v>
+        <v>12.45498878786305</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.86166077155444</v>
+        <v>25.55274119188558</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.35896510041262</v>
+        <v>20.21906073097486</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.155754875235511</v>
+        <v>4.093194872674814</v>
       </c>
       <c r="E6">
-        <v>6.374268355131931</v>
+        <v>10.29426636123088</v>
       </c>
       <c r="F6">
-        <v>39.81842619835085</v>
+        <v>53.95034336130434</v>
       </c>
       <c r="G6">
-        <v>2.16863769230556</v>
+        <v>3.791228572439502</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.287506735902896</v>
+        <v>10.03113072991196</v>
       </c>
       <c r="K6">
-        <v>15.38743811108231</v>
+        <v>19.05292717373231</v>
       </c>
       <c r="L6">
-        <v>7.958525325708823</v>
+        <v>12.45495836003428</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.86771646020703</v>
+        <v>25.55467459748633</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.53973202399179</v>
+        <v>20.23302422015778</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.187692844196755</v>
+        <v>4.099182874439028</v>
       </c>
       <c r="E7">
-        <v>6.387463315311526</v>
+        <v>10.29623610887071</v>
       </c>
       <c r="F7">
-        <v>40.06423912814265</v>
+        <v>53.96098941615995</v>
       </c>
       <c r="G7">
-        <v>2.165624064384029</v>
+        <v>3.790097156957723</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.283001628125279</v>
+        <v>10.02940886018101</v>
       </c>
       <c r="K7">
-        <v>15.65831064574</v>
+        <v>19.08856863688198</v>
       </c>
       <c r="L7">
-        <v>8.035841541559488</v>
+        <v>12.4553911713443</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.82610041521676</v>
+        <v>25.54142281928184</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.33356803235755</v>
+        <v>20.30438660466874</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.326807425802761</v>
+        <v>4.125096937129622</v>
       </c>
       <c r="E8">
-        <v>6.447032644947985</v>
+        <v>10.30494742457775</v>
       </c>
       <c r="F8">
-        <v>41.19498464792441</v>
+        <v>54.03036662240316</v>
       </c>
       <c r="G8">
-        <v>2.15268366725832</v>
+        <v>3.785361306248874</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.264336677933017</v>
+        <v>10.02228727608125</v>
       </c>
       <c r="K8">
-        <v>16.82828359347491</v>
+        <v>19.25641478973798</v>
       </c>
       <c r="L8">
-        <v>8.381052957272084</v>
+        <v>12.46277736831656</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.65298232768747</v>
+        <v>25.4871064164144</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.86430584518546</v>
+        <v>20.47867353263175</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.594305439801391</v>
+        <v>4.174076531206211</v>
       </c>
       <c r="E9">
-        <v>6.570427936010572</v>
+        <v>10.32211862672088</v>
       </c>
       <c r="F9">
-        <v>43.57679065689485</v>
+        <v>54.24657182407713</v>
       </c>
       <c r="G9">
-        <v>2.128450952208265</v>
+        <v>3.776990241660795</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.232317064368392</v>
+        <v>10.01002898553656</v>
       </c>
       <c r="K9">
-        <v>19.01790013865257</v>
+        <v>19.62151637131672</v>
       </c>
       <c r="L9">
-        <v>9.068252126691975</v>
+        <v>12.49684865131933</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.35356992916307</v>
+        <v>25.39554183623657</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.96494945694969</v>
+        <v>20.62696017196143</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.789235547851142</v>
+        <v>4.208938574985711</v>
       </c>
       <c r="E10">
-        <v>6.667007574323959</v>
+        <v>10.33480737324965</v>
       </c>
       <c r="F10">
-        <v>45.42726272231355</v>
+        <v>54.45385197475675</v>
       </c>
       <c r="G10">
-        <v>2.111192315393052</v>
+        <v>3.771391588176609</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.211832912417009</v>
+        <v>10.00205792493336</v>
       </c>
       <c r="K10">
-        <v>20.57830672760711</v>
+        <v>19.90968819892825</v>
       </c>
       <c r="L10">
-        <v>9.576461314361479</v>
+        <v>12.53370978561436</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.16050764457266</v>
+        <v>25.3373788389627</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.45933588609542</v>
+        <v>20.69864258427398</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.878040608888705</v>
+        <v>4.224553637214642</v>
       </c>
       <c r="E11">
-        <v>6.71272381533253</v>
+        <v>10.3405998901691</v>
       </c>
       <c r="F11">
-        <v>46.29145380939603</v>
+        <v>54.55853917058197</v>
       </c>
       <c r="G11">
-        <v>2.103421308924835</v>
+        <v>3.768962931846018</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.203242331383064</v>
+        <v>9.998655286727466</v>
       </c>
       <c r="K11">
-        <v>21.37955855500355</v>
+        <v>20.04465662618948</v>
       </c>
       <c r="L11">
-        <v>9.807996305204982</v>
+        <v>12.55301607922265</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.07917958604303</v>
+        <v>25.31289640458725</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.64558779785403</v>
+        <v>20.7263784602863</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.9117358200999</v>
+        <v>4.230431450424604</v>
       </c>
       <c r="E12">
-        <v>6.730339243208704</v>
+        <v>10.34279661040795</v>
       </c>
       <c r="F12">
-        <v>46.62200577880454</v>
+        <v>54.59966237346649</v>
       </c>
       <c r="G12">
-        <v>2.100486588053017</v>
+        <v>3.768060148548126</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.200100879741676</v>
+        <v>9.997398841868508</v>
       </c>
       <c r="K12">
-        <v>21.67846323875913</v>
+        <v>20.09628307812969</v>
       </c>
       <c r="L12">
-        <v>9.895707735017783</v>
+        <v>12.56068852630348</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.04938164162883</v>
+        <v>25.303909733781</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.60551843169878</v>
+        <v>20.72037901585159</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.904475138228999</v>
+        <v>4.229167130267002</v>
       </c>
       <c r="E13">
-        <v>6.726531114719607</v>
+        <v>10.34232335949647</v>
       </c>
       <c r="F13">
-        <v>46.5506669169379</v>
+        <v>54.59074015846129</v>
       </c>
       <c r="G13">
-        <v>2.101118337604963</v>
+        <v>3.768253829222424</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.200772359976368</v>
+        <v>9.997668014945392</v>
       </c>
       <c r="K13">
-        <v>21.61428636748994</v>
+        <v>20.0851420696948</v>
       </c>
       <c r="L13">
-        <v>9.876816086540975</v>
+        <v>12.55902010430947</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.05575359113241</v>
+        <v>25.30583252794763</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.47467842015602</v>
+        <v>20.70091267817399</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.880811094707745</v>
+        <v>4.225037916547446</v>
       </c>
       <c r="E14">
-        <v>6.714166666293194</v>
+        <v>10.34078054944005</v>
       </c>
       <c r="F14">
-        <v>46.31858173704517</v>
+        <v>54.56189281891407</v>
       </c>
       <c r="G14">
-        <v>2.103179729094365</v>
+        <v>3.768888321272426</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.202981601277849</v>
+        <v>9.99855127610626</v>
       </c>
       <c r="K14">
-        <v>21.40423895253584</v>
+        <v>20.04889384384308</v>
       </c>
       <c r="L14">
-        <v>9.815211731707237</v>
+        <v>12.55364007030356</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.07670766137393</v>
+        <v>25.312151367336</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.3944088032506</v>
+        <v>20.68906548650564</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.866326426610595</v>
+        <v>4.222504054250722</v>
       </c>
       <c r="E15">
-        <v>6.706634150047364</v>
+        <v>10.33983596182487</v>
       </c>
       <c r="F15">
-        <v>46.17685593715875</v>
+        <v>54.54441533413553</v>
       </c>
       <c r="G15">
-        <v>2.104443320366815</v>
+        <v>3.769279163368618</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.204349587442771</v>
+        <v>9.999096472247686</v>
       </c>
       <c r="K15">
-        <v>21.27499690415588</v>
+        <v>20.0267568415623</v>
       </c>
       <c r="L15">
-        <v>9.777481511084202</v>
+        <v>12.55039162481693</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.08967484262478</v>
+        <v>25.31605886636602</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.93250790450318</v>
+        <v>20.62235921664992</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.783438466045298</v>
+        <v>4.207913169506432</v>
       </c>
       <c r="E16">
-        <v>6.664059679547359</v>
+        <v>10.33442925312876</v>
       </c>
       <c r="F16">
-        <v>45.37124248993839</v>
+        <v>54.4472184015627</v>
       </c>
       <c r="G16">
-        <v>2.111701487485577</v>
+        <v>3.771552676424613</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.212409540973671</v>
+        <v>10.00228478547511</v>
       </c>
       <c r="K16">
-        <v>20.52530148981211</v>
+        <v>19.90094225930619</v>
       </c>
       <c r="L16">
-        <v>9.561335273799756</v>
+        <v>12.53249886355166</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.16595871610838</v>
+        <v>25.33901859989234</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.6474835556276</v>
+        <v>20.58250811252914</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.732654389514301</v>
+        <v>4.198899532755964</v>
       </c>
       <c r="E17">
-        <v>6.638429810225828</v>
+        <v>10.33111783169201</v>
       </c>
       <c r="F17">
-        <v>44.88280658866519</v>
+        <v>54.39024387985884</v>
       </c>
       <c r="G17">
-        <v>2.116172253161079</v>
+        <v>3.772977604842196</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.217545062707432</v>
+        <v>10.00429788985059</v>
       </c>
       <c r="K17">
-        <v>20.11449217246684</v>
+        <v>19.82472354252711</v>
       </c>
       <c r="L17">
-        <v>9.428809867530436</v>
+        <v>12.52216997972691</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.2144639592126</v>
+        <v>25.35360988764991</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.48295331131412</v>
+        <v>20.55998563374177</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.703453678364585</v>
+        <v>4.193692187168479</v>
       </c>
       <c r="E18">
-        <v>6.623852700599711</v>
+        <v>10.3292150866671</v>
       </c>
       <c r="F18">
-        <v>44.60397269452103</v>
+        <v>54.35845297721345</v>
       </c>
       <c r="G18">
-        <v>2.11875148472105</v>
+        <v>3.773808317443492</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.220566899946759</v>
+        <v>10.00547680925713</v>
       </c>
       <c r="K18">
-        <v>19.88516459071062</v>
+        <v>19.78125203930118</v>
       </c>
       <c r="L18">
-        <v>9.352617610407766</v>
+        <v>12.51646819178742</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.24297003588079</v>
+        <v>25.36218841233744</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.42714674513762</v>
+        <v>20.55242889169779</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.693567024657781</v>
+        <v>4.1919251356059</v>
       </c>
       <c r="E19">
-        <v>6.618944050307491</v>
+        <v>10.32857116677332</v>
       </c>
       <c r="F19">
-        <v>44.50992349617178</v>
+        <v>54.34785773231353</v>
       </c>
       <c r="G19">
-        <v>2.119626202894941</v>
+        <v>3.7740914973737</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.221601530831303</v>
+        <v>10.00587958604966</v>
       </c>
       <c r="K19">
-        <v>19.80726073191162</v>
+        <v>19.7665976778906</v>
       </c>
       <c r="L19">
-        <v>9.326826582788234</v>
+        <v>12.51457882930859</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.25272414146603</v>
+        <v>25.36512489590278</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.67788662880424</v>
+        <v>20.58670916991979</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.738059193522803</v>
+        <v>4.199861425407414</v>
       </c>
       <c r="E20">
-        <v>6.6411408029315</v>
+        <v>10.33147013965034</v>
       </c>
       <c r="F20">
-        <v>44.93458347806644</v>
+        <v>54.39620765579497</v>
       </c>
       <c r="G20">
-        <v>2.115695553088784</v>
+        <v>3.772824767450043</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.216991290914602</v>
+        <v>10.00408141491059</v>
       </c>
       <c r="K20">
-        <v>20.15681314611463</v>
+        <v>19.83279941401113</v>
       </c>
       <c r="L20">
-        <v>9.442914184462722</v>
+        <v>12.52324478317895</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.20923721321272</v>
+        <v>25.35203736896241</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.51313568604429</v>
+        <v>20.70661450098507</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.887759566386499</v>
+        <v>4.22625172565603</v>
       </c>
       <c r="E21">
-        <v>6.717789752634857</v>
+        <v>10.34123362041219</v>
       </c>
       <c r="F21">
-        <v>46.38666032255009</v>
+        <v>54.57032592539043</v>
       </c>
       <c r="G21">
-        <v>2.102574061592398</v>
+        <v>3.768701497820908</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.202329603044431</v>
+        <v>9.998290971328535</v>
       </c>
       <c r="K21">
-        <v>21.46605589644304</v>
+        <v>20.0595271287892</v>
       </c>
       <c r="L21">
-        <v>9.833305551030303</v>
+        <v>12.55521053252579</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.07052526227463</v>
+        <v>25.31028765431299</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.0534111419384</v>
+        <v>20.78841787716218</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.986014253482955</v>
+        <v>4.243293620641621</v>
       </c>
       <c r="E22">
-        <v>6.769681180308569</v>
+        <v>10.34763352501776</v>
       </c>
       <c r="F22">
-        <v>47.3549905610664</v>
+        <v>54.69274357311475</v>
       </c>
       <c r="G22">
-        <v>2.094043054129823</v>
+        <v>3.76610514003508</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.193402034369487</v>
+        <v>9.994693423261925</v>
       </c>
       <c r="K22">
-        <v>22.32787688485488</v>
+        <v>20.21069985311995</v>
       </c>
       <c r="L22">
-        <v>10.08865126355479</v>
+        <v>12.57820769216909</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.98573002292614</v>
+        <v>25.28465895967675</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.76557937264551</v>
+        <v>20.74444892609664</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.933517730962876</v>
+        <v>4.234216930990808</v>
       </c>
       <c r="E23">
-        <v>6.741803927017623</v>
+        <v>10.34421594780379</v>
       </c>
       <c r="F23">
-        <v>46.83636904484301</v>
+        <v>54.62662327237884</v>
       </c>
       <c r="G23">
-        <v>2.098593397196082</v>
+        <v>3.76748189118655</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.198104324956041</v>
+        <v>9.996596428844516</v>
       </c>
       <c r="K23">
-        <v>21.87023930117564</v>
+        <v>20.12975593971177</v>
       </c>
       <c r="L23">
-        <v>9.952351318704743</v>
+        <v>12.5657422169369</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.03042670413834</v>
+        <v>25.29818580355938</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.6641434691296</v>
+        <v>20.58480866065355</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.735615698440285</v>
+        <v>4.199426632511508</v>
       </c>
       <c r="E24">
-        <v>6.639914674982568</v>
+        <v>10.33131085804491</v>
       </c>
       <c r="F24">
-        <v>44.91116900197181</v>
+        <v>54.39350842721959</v>
       </c>
       <c r="G24">
-        <v>2.11591104111967</v>
+        <v>3.772893829398431</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.217241435618963</v>
+        <v>10.00417921607988</v>
       </c>
       <c r="K24">
-        <v>20.13768483085104</v>
+        <v>19.82914722652108</v>
       </c>
       <c r="L24">
-        <v>9.436537626473793</v>
+        <v>12.52275812784928</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.21159829945198</v>
+        <v>25.35274771342482</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.45393407915046</v>
+        <v>20.42791524179625</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.522359895654108</v>
+        <v>4.161023256871555</v>
       </c>
       <c r="E25">
-        <v>6.536158004895308</v>
+        <v>10.31746192418786</v>
       </c>
       <c r="F25">
-        <v>42.91487283632491</v>
+        <v>54.17953891236896</v>
       </c>
       <c r="G25">
-        <v>2.13489895861162</v>
+        <v>3.779157485780831</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.240465494548981</v>
+        <v>10.01316300516072</v>
       </c>
       <c r="K25">
-        <v>18.43769117498558</v>
+        <v>19.51909588380896</v>
       </c>
       <c r="L25">
-        <v>8.881590747410151</v>
+        <v>12.48554460780433</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.43004214482669</v>
+        <v>25.41871249580331</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_55/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.32606987536358</v>
+        <v>15.54726893962001</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.131994058382846</v>
+        <v>2.364092631285003</v>
       </c>
       <c r="E2">
-        <v>10.30731302176281</v>
+        <v>6.463554867140502</v>
       </c>
       <c r="F2">
-        <v>54.05460082667306</v>
+        <v>41.5125047381273</v>
       </c>
       <c r="G2">
-        <v>3.784140366967575</v>
+        <v>2.149259997280605</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.02047342394592</v>
+        <v>6.259581662754152</v>
       </c>
       <c r="K2">
-        <v>19.30439556540139</v>
+        <v>17.13858501014895</v>
       </c>
       <c r="L2">
-        <v>12.46610746182074</v>
+        <v>8.475411765416576</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.47340129136326</v>
+        <v>17.60870678074276</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.26580694792097</v>
+        <v>14.92576214666269</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.111851467595956</v>
+        <v>2.255515382718945</v>
       </c>
       <c r="E3">
-        <v>10.30045843268443</v>
+        <v>6.416087708938371</v>
       </c>
       <c r="F3">
-        <v>53.99040728273752</v>
+        <v>40.60410605023458</v>
       </c>
       <c r="G3">
-        <v>3.787751041860259</v>
+        <v>2.159280045635077</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.02586367475392</v>
+        <v>6.273713866979243</v>
       </c>
       <c r="K3">
-        <v>19.16802028621895</v>
+        <v>16.23093132947462</v>
       </c>
       <c r="L3">
-        <v>12.45793808157025</v>
+        <v>8.202614842398475</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>25.51428359063351</v>
+        <v>17.74009400041869</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.23319296933037</v>
+        <v>14.54184577880098</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.099252662659322</v>
+        <v>2.188065517343151</v>
       </c>
       <c r="E4">
-        <v>10.29625916694828</v>
+        <v>6.387618372353003</v>
       </c>
       <c r="F4">
-        <v>53.96112625322006</v>
+        <v>40.06714067036065</v>
       </c>
       <c r="G4">
-        <v>3.790084058908104</v>
+        <v>2.165589003489448</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.02938897333782</v>
+        <v>6.282949569070349</v>
       </c>
       <c r="K4">
-        <v>19.08899155541685</v>
+        <v>15.66146716812454</v>
       </c>
       <c r="L4">
-        <v>12.45539923531187</v>
+        <v>8.036748666733303</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>25.54127003434116</v>
+        <v>17.82561912267145</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.22101534782628</v>
+        <v>14.3850217719233</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.094060524727016</v>
+        <v>2.160367300456734</v>
       </c>
       <c r="E5">
-        <v>10.29455004093529</v>
+        <v>6.376162476961015</v>
       </c>
       <c r="F5">
-        <v>53.95174658536413</v>
+        <v>39.85357165349953</v>
       </c>
       <c r="G5">
-        <v>3.791064070247564</v>
+        <v>2.16820135609745</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.03087988209736</v>
+        <v>6.286850723812947</v>
       </c>
       <c r="K5">
-        <v>19.05799935401901</v>
+        <v>15.42659891845302</v>
       </c>
       <c r="L5">
-        <v>12.45498878786305</v>
+        <v>7.969637814099817</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>25.55274119188558</v>
+        <v>17.86166077155447</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.21906073097486</v>
+        <v>14.35896510041252</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.093194872674814</v>
+        <v>2.155754875235647</v>
       </c>
       <c r="E6">
-        <v>10.29426636123088</v>
+        <v>6.374268355132131</v>
       </c>
       <c r="F6">
-        <v>53.95034336130434</v>
+        <v>39.8184261983506</v>
       </c>
       <c r="G6">
-        <v>3.791228572439502</v>
+        <v>2.168637692305961</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.03113072991196</v>
+        <v>6.287506735902995</v>
       </c>
       <c r="K6">
-        <v>19.05292717373231</v>
+        <v>15.38743811108224</v>
       </c>
       <c r="L6">
-        <v>12.45495836003428</v>
+        <v>7.958525325708823</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>25.55467459748633</v>
+        <v>17.86771646020692</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.23302422015778</v>
+        <v>14.53973202399183</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.099182874439028</v>
+        <v>2.187692844196819</v>
       </c>
       <c r="E7">
-        <v>10.29623610887071</v>
+        <v>6.387463315311523</v>
       </c>
       <c r="F7">
-        <v>53.96098941615995</v>
+        <v>40.06423912814279</v>
       </c>
       <c r="G7">
-        <v>3.790097156957723</v>
+        <v>2.165624064384161</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.02940886018101</v>
+        <v>6.283001628125313</v>
       </c>
       <c r="K7">
-        <v>19.08856863688198</v>
+        <v>15.65831064574003</v>
       </c>
       <c r="L7">
-        <v>12.4553911713443</v>
+        <v>8.03584154155951</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>25.54142281928184</v>
+        <v>17.82610041521678</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.30438660466874</v>
+        <v>15.33356803235759</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.125096937129622</v>
+        <v>2.326807425802757</v>
       </c>
       <c r="E8">
-        <v>10.30494742457775</v>
+        <v>6.447032644947985</v>
       </c>
       <c r="F8">
-        <v>54.03036662240316</v>
+        <v>41.19498464792422</v>
       </c>
       <c r="G8">
-        <v>3.785361306248874</v>
+        <v>2.15268366725832</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.02228727608125</v>
+        <v>6.264336677933052</v>
       </c>
       <c r="K8">
-        <v>19.25641478973798</v>
+        <v>16.82828359347488</v>
       </c>
       <c r="L8">
-        <v>12.46277736831656</v>
+        <v>8.381052957272013</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.4871064164144</v>
+        <v>17.65298232768739</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.47867353263175</v>
+        <v>16.86430584518545</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.174076531206211</v>
+        <v>2.59430543980151</v>
       </c>
       <c r="E9">
-        <v>10.32211862672088</v>
+        <v>6.570427936010639</v>
       </c>
       <c r="F9">
-        <v>54.24657182407713</v>
+        <v>43.57679065689494</v>
       </c>
       <c r="G9">
-        <v>3.776990241660795</v>
+        <v>2.128450952208398</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.01002898553656</v>
+        <v>6.232317064368358</v>
       </c>
       <c r="K9">
-        <v>19.62151637131672</v>
+        <v>19.01790013865259</v>
       </c>
       <c r="L9">
-        <v>12.49684865131933</v>
+        <v>9.068252126691997</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>25.39554183623657</v>
+        <v>17.35356992916311</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.62696017196143</v>
+        <v>17.96494945694968</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.208938574985711</v>
+        <v>2.789235547851139</v>
       </c>
       <c r="E10">
-        <v>10.33480737324965</v>
+        <v>6.667007574324026</v>
       </c>
       <c r="F10">
-        <v>54.45385197475675</v>
+        <v>45.42726272231351</v>
       </c>
       <c r="G10">
-        <v>3.771391588176609</v>
+        <v>2.11119231539305</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.00205792493336</v>
+        <v>6.211832912417043</v>
       </c>
       <c r="K10">
-        <v>19.90968819892825</v>
+        <v>20.57830672760713</v>
       </c>
       <c r="L10">
-        <v>12.53370978561436</v>
+        <v>9.576461314361492</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>25.3373788389627</v>
+        <v>17.16050764457265</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.69864258427398</v>
+        <v>18.45933588609538</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.224553637214642</v>
+        <v>2.87804060888857</v>
       </c>
       <c r="E11">
-        <v>10.3405998901691</v>
+        <v>6.712723815332462</v>
       </c>
       <c r="F11">
-        <v>54.55853917058197</v>
+        <v>46.29145380939593</v>
       </c>
       <c r="G11">
-        <v>3.768962931846018</v>
+        <v>2.103421308924704</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.998655286727466</v>
+        <v>6.203242331383029</v>
       </c>
       <c r="K11">
-        <v>20.04465662618948</v>
+        <v>21.37955855500351</v>
       </c>
       <c r="L11">
-        <v>12.55301607922265</v>
+        <v>9.807996305204957</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>25.31289640458725</v>
+        <v>17.07917958604293</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.7263784602863</v>
+        <v>18.64558779785406</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.230431450424604</v>
+        <v>2.911735820099777</v>
       </c>
       <c r="E12">
-        <v>10.34279661040795</v>
+        <v>6.730339243208702</v>
       </c>
       <c r="F12">
-        <v>54.59966237346649</v>
+        <v>46.62200577880461</v>
       </c>
       <c r="G12">
-        <v>3.768060148548126</v>
+        <v>2.100486588053015</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.997398841868508</v>
+        <v>6.20010087974171</v>
       </c>
       <c r="K12">
-        <v>20.09628307812969</v>
+        <v>21.67846323875908</v>
       </c>
       <c r="L12">
-        <v>12.56068852630348</v>
+        <v>9.895707735017812</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>25.303909733781</v>
+        <v>17.04938164162883</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.72037901585159</v>
+        <v>18.60551843169875</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.229167130267002</v>
+        <v>2.90447513822907</v>
       </c>
       <c r="E13">
-        <v>10.34232335949647</v>
+        <v>6.726531114719604</v>
       </c>
       <c r="F13">
-        <v>54.59074015846129</v>
+        <v>46.55066691693791</v>
       </c>
       <c r="G13">
-        <v>3.768253829222424</v>
+        <v>2.101118337605224</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.997668014945392</v>
+        <v>6.200772359976336</v>
       </c>
       <c r="K13">
-        <v>20.0851420696948</v>
+        <v>21.61428636748988</v>
       </c>
       <c r="L13">
-        <v>12.55902010430947</v>
+        <v>9.876816086540991</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>25.30583252794763</v>
+        <v>17.05575359113247</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.70091267817399</v>
+        <v>18.47467842015606</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.225037916547446</v>
+        <v>2.880811094707615</v>
       </c>
       <c r="E14">
-        <v>10.34078054944005</v>
+        <v>6.714166666292991</v>
       </c>
       <c r="F14">
-        <v>54.56189281891407</v>
+        <v>46.31858173704516</v>
       </c>
       <c r="G14">
-        <v>3.768888321272426</v>
+        <v>2.103179729094233</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.99855127610626</v>
+        <v>6.202981601277786</v>
       </c>
       <c r="K14">
-        <v>20.04889384384308</v>
+        <v>21.40423895253582</v>
       </c>
       <c r="L14">
-        <v>12.55364007030356</v>
+        <v>9.815211731707208</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>25.312151367336</v>
+        <v>17.07670766137387</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.68906548650564</v>
+        <v>18.39440880325059</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.222504054250722</v>
+        <v>2.866326426610278</v>
       </c>
       <c r="E15">
-        <v>10.33983596182487</v>
+        <v>6.706634150047229</v>
       </c>
       <c r="F15">
-        <v>54.54441533413553</v>
+        <v>46.17685593715874</v>
       </c>
       <c r="G15">
-        <v>3.769279163368618</v>
+        <v>2.104443320366549</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.999096472247686</v>
+        <v>6.204349587442735</v>
       </c>
       <c r="K15">
-        <v>20.0267568415623</v>
+        <v>21.27499690415581</v>
       </c>
       <c r="L15">
-        <v>12.55039162481693</v>
+        <v>9.777481511084195</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>25.31605886636602</v>
+        <v>17.0896748426248</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.62235921664992</v>
+        <v>17.9325079045032</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.207913169506432</v>
+        <v>2.783438466045425</v>
       </c>
       <c r="E16">
-        <v>10.33442925312876</v>
+        <v>6.664059679547356</v>
       </c>
       <c r="F16">
-        <v>54.4472184015627</v>
+        <v>45.37124248993835</v>
       </c>
       <c r="G16">
-        <v>3.771552676424613</v>
+        <v>2.111701487485573</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.00228478547511</v>
+        <v>6.212409540973606</v>
       </c>
       <c r="K16">
-        <v>19.90094225930619</v>
+        <v>20.52530148981214</v>
       </c>
       <c r="L16">
-        <v>12.53249886355166</v>
+        <v>9.561335273799724</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>25.33901859989234</v>
+        <v>17.16595871610831</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.58250811252914</v>
+        <v>17.64748355562759</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.198899532755964</v>
+        <v>2.73265438951436</v>
       </c>
       <c r="E17">
-        <v>10.33111783169201</v>
+        <v>6.638429810225825</v>
       </c>
       <c r="F17">
-        <v>54.39024387985884</v>
+        <v>44.88280658866518</v>
       </c>
       <c r="G17">
-        <v>3.772977604842196</v>
+        <v>2.116172253161214</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.00429788985059</v>
+        <v>6.217545062707464</v>
       </c>
       <c r="K17">
-        <v>19.82472354252711</v>
+        <v>20.11449217246684</v>
       </c>
       <c r="L17">
-        <v>12.52216997972691</v>
+        <v>9.428809867530466</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>25.35360988764991</v>
+        <v>17.21446395921254</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.55998563374177</v>
+        <v>17.48295331131419</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.193692187168479</v>
+        <v>2.703453678364518</v>
       </c>
       <c r="E18">
-        <v>10.3292150866671</v>
+        <v>6.623852700599779</v>
       </c>
       <c r="F18">
-        <v>54.35845297721345</v>
+        <v>44.60397269452107</v>
       </c>
       <c r="G18">
-        <v>3.773808317443492</v>
+        <v>2.118751484720651</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.00547680925713</v>
+        <v>6.220566899946757</v>
       </c>
       <c r="K18">
-        <v>19.78125203930118</v>
+        <v>19.88516459071061</v>
       </c>
       <c r="L18">
-        <v>12.51646819178742</v>
+        <v>9.352617610407737</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>25.36218841233744</v>
+        <v>17.24297003588081</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.55242889169779</v>
+        <v>17.42714674513765</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.1919251356059</v>
+        <v>2.693567024657777</v>
       </c>
       <c r="E19">
-        <v>10.32857116677332</v>
+        <v>6.618944050307555</v>
       </c>
       <c r="F19">
-        <v>54.34785773231353</v>
+        <v>44.50992349617175</v>
       </c>
       <c r="G19">
-        <v>3.7740914973737</v>
+        <v>2.119626202895216</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.00587958604966</v>
+        <v>6.221601530831305</v>
       </c>
       <c r="K19">
-        <v>19.7665976778906</v>
+        <v>19.80726073191159</v>
       </c>
       <c r="L19">
-        <v>12.51457882930859</v>
+        <v>9.326826582788222</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>25.36512489590278</v>
+        <v>17.25272414146605</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.58670916991979</v>
+        <v>17.67788662880423</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.199861425407414</v>
+        <v>2.738059193522912</v>
       </c>
       <c r="E20">
-        <v>10.33147013965034</v>
+        <v>6.641140802931435</v>
       </c>
       <c r="F20">
-        <v>54.39620765579497</v>
+        <v>44.93458347806646</v>
       </c>
       <c r="G20">
-        <v>3.772824767450043</v>
+        <v>2.115695553088649</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.00408141491059</v>
+        <v>6.216991290914501</v>
       </c>
       <c r="K20">
-        <v>19.83279941401113</v>
+        <v>20.15681314611463</v>
       </c>
       <c r="L20">
-        <v>12.52324478317895</v>
+        <v>9.442914184462726</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>25.35203736896241</v>
+        <v>17.20923721321266</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.70661450098507</v>
+        <v>18.51313568604431</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.22625172565603</v>
+        <v>2.887759566386487</v>
       </c>
       <c r="E21">
-        <v>10.34123362041219</v>
+        <v>6.717789752634791</v>
       </c>
       <c r="F21">
-        <v>54.57032592539043</v>
+        <v>46.38666032255009</v>
       </c>
       <c r="G21">
-        <v>3.768701497820908</v>
+        <v>2.102574061592541</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.998290971328535</v>
+        <v>6.202329603044463</v>
       </c>
       <c r="K21">
-        <v>20.0595271287892</v>
+        <v>21.46605589644309</v>
       </c>
       <c r="L21">
-        <v>12.55521053252579</v>
+        <v>9.833305551030262</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>25.31028765431299</v>
+        <v>17.07052526227459</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.78841787716218</v>
+        <v>19.05341114193841</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.243293620641621</v>
+        <v>2.986014253482832</v>
       </c>
       <c r="E22">
-        <v>10.34763352501776</v>
+        <v>6.769681180308504</v>
       </c>
       <c r="F22">
-        <v>54.69274357311475</v>
+        <v>47.35499056106632</v>
       </c>
       <c r="G22">
-        <v>3.76610514003508</v>
+        <v>2.094043054129429</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.994693423261925</v>
+        <v>6.193402034369452</v>
       </c>
       <c r="K22">
-        <v>20.21069985311995</v>
+        <v>22.32787688485494</v>
       </c>
       <c r="L22">
-        <v>12.57820769216909</v>
+        <v>10.08865126355475</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>25.28465895967675</v>
+        <v>16.98573002292609</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.74444892609664</v>
+        <v>18.7655793726455</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.234216930990808</v>
+        <v>2.933517730962639</v>
       </c>
       <c r="E23">
-        <v>10.34421594780379</v>
+        <v>6.741803927017355</v>
       </c>
       <c r="F23">
-        <v>54.62662327237884</v>
+        <v>46.83636904484289</v>
       </c>
       <c r="G23">
-        <v>3.76748189118655</v>
+        <v>2.098593397196215</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.996596428844516</v>
+        <v>6.198104324956041</v>
       </c>
       <c r="K23">
-        <v>20.12975593971177</v>
+        <v>21.87023930117568</v>
       </c>
       <c r="L23">
-        <v>12.5657422169369</v>
+        <v>9.952351318704711</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>25.29818580355938</v>
+        <v>17.03042670413822</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.58480866065355</v>
+        <v>17.6641434691296</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.199426632511508</v>
+        <v>2.735615698440304</v>
       </c>
       <c r="E24">
-        <v>10.33131085804491</v>
+        <v>6.639914674982634</v>
       </c>
       <c r="F24">
-        <v>54.39350842721959</v>
+        <v>44.91116900197178</v>
       </c>
       <c r="G24">
-        <v>3.772893829398431</v>
+        <v>2.115911041119533</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.00417921607988</v>
+        <v>6.2172414356191</v>
       </c>
       <c r="K24">
-        <v>19.82914722652108</v>
+        <v>20.13768483085105</v>
       </c>
       <c r="L24">
-        <v>12.52275812784928</v>
+        <v>9.4365376264738</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>25.35274771342482</v>
+        <v>17.21159829945197</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.42791524179625</v>
+        <v>16.45393407915044</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.161023256871555</v>
+        <v>2.522359895654056</v>
       </c>
       <c r="E25">
-        <v>10.31746192418786</v>
+        <v>6.536158004895308</v>
       </c>
       <c r="F25">
-        <v>54.17953891236896</v>
+        <v>42.91487283632488</v>
       </c>
       <c r="G25">
-        <v>3.779157485780831</v>
+        <v>2.134898958611352</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.01316300516072</v>
+        <v>6.240465494548948</v>
       </c>
       <c r="K25">
-        <v>19.51909588380896</v>
+        <v>18.43769117498557</v>
       </c>
       <c r="L25">
-        <v>12.48554460780433</v>
+        <v>8.881590747410147</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>25.41871249580331</v>
+        <v>17.43004214482669</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_55/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.54726893962001</v>
+        <v>15.72889361237516</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.364092631285003</v>
+        <v>2.026738451681533</v>
       </c>
       <c r="E2">
-        <v>6.463554867140502</v>
+        <v>28.20571082503235</v>
       </c>
       <c r="F2">
-        <v>41.5125047381273</v>
+        <v>32.89100577963362</v>
       </c>
       <c r="G2">
-        <v>2.149259997280605</v>
+        <v>50.75612970369458</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.97864772978329</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.846906932485033</v>
       </c>
       <c r="J2">
-        <v>6.259581662754152</v>
+        <v>13.08714703598062</v>
       </c>
       <c r="K2">
-        <v>17.13858501014895</v>
+        <v>15.1502356909537</v>
       </c>
       <c r="L2">
-        <v>8.475411765416576</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.60870678074276</v>
+        <v>9.590734148648339</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>13.03675311870559</v>
+      </c>
+      <c r="P2">
+        <v>14.01849181158736</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.92576214666269</v>
+        <v>14.79378709289711</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.255515382718945</v>
+        <v>2.051743414915485</v>
       </c>
       <c r="E3">
-        <v>6.416087708938371</v>
+        <v>26.6732651372724</v>
       </c>
       <c r="F3">
-        <v>40.60410605023458</v>
+        <v>30.75323881204126</v>
       </c>
       <c r="G3">
-        <v>2.159280045635077</v>
+        <v>47.18006662427655</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.207289173430488</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.971169343789808</v>
       </c>
       <c r="J3">
-        <v>6.273713866979243</v>
+        <v>12.41392470452251</v>
       </c>
       <c r="K3">
-        <v>16.23093132947462</v>
+        <v>15.40511782804731</v>
       </c>
       <c r="L3">
-        <v>8.202614842398475</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.74009400041869</v>
+        <v>8.989663723264941</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.37924800646656</v>
+      </c>
+      <c r="P3">
+        <v>14.00518705623253</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.54184577880098</v>
+        <v>14.18523759455203</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.188065517343151</v>
+        <v>2.06818163196522</v>
       </c>
       <c r="E4">
-        <v>6.387618372353003</v>
+        <v>25.69989038973825</v>
       </c>
       <c r="F4">
-        <v>40.06714067036065</v>
+        <v>29.39291147597927</v>
       </c>
       <c r="G4">
-        <v>2.165589003489448</v>
+        <v>44.9295508482754</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.351525676433534</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.050349127874084</v>
       </c>
       <c r="J4">
-        <v>6.282949569070349</v>
+        <v>11.9936131859034</v>
       </c>
       <c r="K4">
-        <v>15.66146716812454</v>
+        <v>15.56430671037448</v>
       </c>
       <c r="L4">
-        <v>8.036748666733303</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.82561912267145</v>
+        <v>8.602194592040128</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.95776265195554</v>
+      </c>
+      <c r="P4">
+        <v>14.00015987582482</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.3850217719233</v>
+        <v>13.91957223952764</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.160367300456734</v>
+        <v>2.074319415740263</v>
       </c>
       <c r="E5">
-        <v>6.376162476961015</v>
+        <v>25.30468129850228</v>
       </c>
       <c r="F5">
-        <v>39.85357165349953</v>
+        <v>28.82116070571133</v>
       </c>
       <c r="G5">
-        <v>2.16820135609745</v>
+        <v>43.98107822115092</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.411568348249532</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.085875836668223</v>
       </c>
       <c r="J5">
-        <v>6.286850723812947</v>
+        <v>11.81844607943654</v>
       </c>
       <c r="K5">
-        <v>15.42659891845302</v>
+        <v>15.62657906702461</v>
       </c>
       <c r="L5">
-        <v>7.969637814099817</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.86166077155447</v>
+        <v>8.443399372678313</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.78019116963206</v>
+      </c>
+      <c r="P5">
+        <v>14.00132021918187</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.35896510041252</v>
+        <v>13.86378294692644</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.155754875235647</v>
+        <v>2.074364522346021</v>
       </c>
       <c r="E6">
-        <v>6.374268355132131</v>
+        <v>25.25032110505551</v>
       </c>
       <c r="F6">
-        <v>39.8184261983506</v>
+        <v>28.71863913156771</v>
       </c>
       <c r="G6">
-        <v>2.168637692305961</v>
+        <v>43.81016355522235</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.4219176482575</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.095036641568719</v>
       </c>
       <c r="J6">
-        <v>6.287506735902995</v>
+        <v>11.78644737054345</v>
       </c>
       <c r="K6">
-        <v>15.38743811108224</v>
+        <v>15.63295799899222</v>
       </c>
       <c r="L6">
-        <v>7.958525325708823</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.86771646020692</v>
+        <v>8.421299778995472</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.74861592604173</v>
+      </c>
+      <c r="P6">
+        <v>14.00454545119185</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.53973202399183</v>
+        <v>14.1518635118373</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.187692844196819</v>
+        <v>2.065562178597447</v>
       </c>
       <c r="E7">
-        <v>6.387463315311523</v>
+        <v>25.72614069594146</v>
       </c>
       <c r="F7">
-        <v>40.06423912814279</v>
+        <v>29.36691709468659</v>
       </c>
       <c r="G7">
-        <v>2.165624064384161</v>
+        <v>44.88484899755094</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.353175235869987</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.059319775587849</v>
       </c>
       <c r="J7">
-        <v>6.283001628125313</v>
+        <v>11.98369259175398</v>
       </c>
       <c r="K7">
-        <v>15.65831064574003</v>
+        <v>15.55425360707835</v>
       </c>
       <c r="L7">
-        <v>8.03584154155951</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.82610041521678</v>
+        <v>8.612202146009992</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.95045948188296</v>
+      </c>
+      <c r="P7">
+        <v>14.00844841494732</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.33356803235759</v>
+        <v>15.37699415300639</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.326807425802757</v>
+        <v>2.03153533894378</v>
       </c>
       <c r="E8">
-        <v>6.447032644947985</v>
+        <v>27.72333826868034</v>
       </c>
       <c r="F8">
-        <v>41.19498464792422</v>
+        <v>32.14160737985827</v>
       </c>
       <c r="G8">
-        <v>2.15268366725832</v>
+        <v>49.50483401175634</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.057721310691643</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.899848333718161</v>
       </c>
       <c r="J8">
-        <v>6.264336677933052</v>
+        <v>12.84718614819272</v>
       </c>
       <c r="K8">
-        <v>16.82828359347488</v>
+        <v>15.22346456021841</v>
       </c>
       <c r="L8">
-        <v>8.381052957272013</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.65298232768739</v>
+        <v>9.402151846855418</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.80766654433468</v>
+      </c>
+      <c r="P8">
+        <v>14.0247422674563</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.86430584518545</v>
+        <v>17.5515855359947</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.59430543980151</v>
+        <v>1.979651145723617</v>
       </c>
       <c r="E9">
-        <v>6.570427936010639</v>
+        <v>31.33324082475709</v>
       </c>
       <c r="F9">
-        <v>43.57679065689494</v>
+        <v>37.51163921172155</v>
       </c>
       <c r="G9">
-        <v>2.128450952208398</v>
+        <v>57.93279004338325</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.614018157594981</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.595485622198573</v>
       </c>
       <c r="J9">
-        <v>6.232317064368358</v>
+        <v>14.49239966586072</v>
       </c>
       <c r="K9">
-        <v>19.01790013865259</v>
+        <v>14.61378937574593</v>
       </c>
       <c r="L9">
-        <v>9.068252126691997</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.35356992916311</v>
+        <v>10.78584020115792</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>14.35030185049084</v>
+      </c>
+      <c r="P9">
+        <v>14.0661836867716</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.96494945694968</v>
+        <v>18.89084688305291</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.789235547851139</v>
+        <v>1.928842904418674</v>
       </c>
       <c r="E10">
-        <v>6.667007574324026</v>
+        <v>34.0504916207488</v>
       </c>
       <c r="F10">
-        <v>45.42726272231351</v>
+        <v>41.10786655222375</v>
       </c>
       <c r="G10">
-        <v>2.11119231539305</v>
+        <v>63.48913624338329</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.987643004733683</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.395244984217261</v>
       </c>
       <c r="J10">
-        <v>6.211832912417043</v>
+        <v>15.80713975984046</v>
       </c>
       <c r="K10">
-        <v>20.57830672760713</v>
+        <v>14.1346080685357</v>
       </c>
       <c r="L10">
-        <v>9.576461314361492</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.16050764457265</v>
+        <v>11.60792792995596</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>15.28553239167192</v>
+      </c>
+      <c r="P10">
+        <v>14.16017204133539</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.45933588609538</v>
+        <v>18.77680154154742</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.87804060888857</v>
+        <v>1.882272866311373</v>
       </c>
       <c r="E11">
-        <v>6.712723815332462</v>
+        <v>37.0445932557468</v>
       </c>
       <c r="F11">
-        <v>46.29145380939593</v>
+        <v>41.79627435245636</v>
       </c>
       <c r="G11">
-        <v>2.103421308924704</v>
+        <v>64.38384137758236</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.900768447152922</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.370288611905199</v>
       </c>
       <c r="J11">
-        <v>6.203242331383029</v>
+        <v>16.02029016870552</v>
       </c>
       <c r="K11">
-        <v>21.37955855500351</v>
+        <v>13.68282372710621</v>
       </c>
       <c r="L11">
-        <v>9.807996305204957</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.07917958604293</v>
+        <v>11.0375066650087</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.81216691827852</v>
+      </c>
+      <c r="P11">
+        <v>14.633808376542</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.64558779785406</v>
+        <v>18.43580215059135</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.911735820099777</v>
+        <v>1.835861554391635</v>
       </c>
       <c r="E12">
-        <v>6.730339243208702</v>
+        <v>39.02992996976401</v>
       </c>
       <c r="F12">
-        <v>46.62200577880461</v>
+        <v>41.65460350103361</v>
       </c>
       <c r="G12">
-        <v>2.100486588053015</v>
+        <v>64.02656247707064</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.171396193161815</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.371319426753504</v>
       </c>
       <c r="J12">
-        <v>6.20010087974171</v>
+        <v>15.92556280846922</v>
       </c>
       <c r="K12">
-        <v>21.67846323875908</v>
+        <v>13.53914726407091</v>
       </c>
       <c r="L12">
-        <v>9.895707735017812</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.04938164162883</v>
+        <v>10.38099105159212</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>14.25463855649963</v>
+      </c>
+      <c r="P12">
+        <v>15.04022970901749</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.60551843169875</v>
+        <v>17.85401942564865</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.90447513822907</v>
+        <v>1.780272193104925</v>
       </c>
       <c r="E13">
-        <v>6.726531114719604</v>
+        <v>40.44384149613995</v>
       </c>
       <c r="F13">
-        <v>46.55066691693791</v>
+        <v>40.82387767238188</v>
       </c>
       <c r="G13">
-        <v>2.101118337605224</v>
+        <v>62.6094539858529</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.496732017587078</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.406587684723107</v>
       </c>
       <c r="J13">
-        <v>6.200772359976336</v>
+        <v>15.5691437496112</v>
       </c>
       <c r="K13">
-        <v>21.61428636748988</v>
+        <v>13.60516744820606</v>
       </c>
       <c r="L13">
-        <v>9.876816086540991</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.05575359113247</v>
+        <v>9.615423669768616</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>13.54357639873384</v>
+      </c>
+      <c r="P13">
+        <v>15.4237662797397</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.47467842015606</v>
+        <v>17.32243746522385</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.880811094707615</v>
+        <v>1.739630628616819</v>
       </c>
       <c r="E14">
-        <v>6.714166666292991</v>
+        <v>41.20778972555289</v>
       </c>
       <c r="F14">
-        <v>46.31858173704516</v>
+        <v>39.9129674885786</v>
       </c>
       <c r="G14">
-        <v>2.103179729094233</v>
+        <v>61.10748602076691</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.444774795110043</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.449133197528783</v>
       </c>
       <c r="J14">
-        <v>6.202981601277786</v>
+        <v>15.19356323604692</v>
       </c>
       <c r="K14">
-        <v>21.40423895253582</v>
+        <v>13.75890518091203</v>
       </c>
       <c r="L14">
-        <v>9.815211731707208</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.07670766137387</v>
+        <v>9.027399060430923</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>12.95727077552009</v>
+      </c>
+      <c r="P14">
+        <v>15.68665348870024</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.39440880325059</v>
+        <v>17.13078123028814</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.866326426610278</v>
+        <v>1.724973212299439</v>
       </c>
       <c r="E15">
-        <v>6.706634150047229</v>
+        <v>41.2811432546613</v>
       </c>
       <c r="F15">
-        <v>46.17685593715874</v>
+        <v>39.53417566083468</v>
       </c>
       <c r="G15">
-        <v>2.104443320366549</v>
+        <v>60.49839770243744</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.677721362250126</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.471350166622654</v>
       </c>
       <c r="J15">
-        <v>6.204349587442735</v>
+        <v>15.04200437620188</v>
       </c>
       <c r="K15">
-        <v>21.27499690415581</v>
+        <v>13.8258429588082</v>
       </c>
       <c r="L15">
-        <v>9.777481511084195</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.0896748426248</v>
+        <v>8.860471823757479</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>12.77269058258821</v>
+      </c>
+      <c r="P15">
+        <v>15.74501876959282</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.9325079045032</v>
+        <v>16.639407708186</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.783438466045425</v>
+        <v>1.666525942600258</v>
       </c>
       <c r="E16">
-        <v>6.664059679547356</v>
+        <v>39.99712081124002</v>
       </c>
       <c r="F16">
-        <v>45.37124248993835</v>
+        <v>38.11018312016676</v>
       </c>
       <c r="G16">
-        <v>2.111701487485573</v>
+        <v>58.30605796869405</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.469629293451671</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.55658401843441</v>
       </c>
       <c r="J16">
-        <v>6.212409540973606</v>
+        <v>14.50171979009423</v>
       </c>
       <c r="K16">
-        <v>20.52530148981214</v>
+        <v>13.99864553585787</v>
       </c>
       <c r="L16">
-        <v>9.561335273799724</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.16595871610831</v>
+        <v>8.619073490323471</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>12.40775047964967</v>
+      </c>
+      <c r="P16">
+        <v>15.61396118096537</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.64748355562759</v>
+        <v>16.55139101790265</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.73265438951436</v>
+        <v>1.642124344110176</v>
       </c>
       <c r="E17">
-        <v>6.638429810225825</v>
+        <v>38.56077066845978</v>
       </c>
       <c r="F17">
-        <v>44.88280658866518</v>
+        <v>37.51509870309436</v>
       </c>
       <c r="G17">
-        <v>2.116172253161214</v>
+        <v>57.44733764522354</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.728322577214721</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.599877183140678</v>
       </c>
       <c r="J17">
-        <v>6.217545062707464</v>
+        <v>14.29333811352988</v>
       </c>
       <c r="K17">
-        <v>20.11449217246684</v>
+        <v>14.04430364536103</v>
       </c>
       <c r="L17">
-        <v>9.428809867530466</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.21446395921254</v>
+        <v>8.758263504691987</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.49824482692693</v>
+      </c>
+      <c r="P17">
+        <v>15.37344970511419</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.48295331131419</v>
+        <v>16.82742569503979</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.703453678364518</v>
+        <v>1.656088749556375</v>
       </c>
       <c r="E18">
-        <v>6.623852700599779</v>
+        <v>36.83136011435646</v>
       </c>
       <c r="F18">
-        <v>44.60397269452107</v>
+        <v>37.59192299399018</v>
       </c>
       <c r="G18">
-        <v>2.118751484720651</v>
+        <v>57.68219545498452</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.461342202600673</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.600582715386084</v>
       </c>
       <c r="J18">
-        <v>6.220566899946757</v>
+        <v>14.35736340088336</v>
       </c>
       <c r="K18">
-        <v>19.88516459071061</v>
+        <v>14.04142258461113</v>
       </c>
       <c r="L18">
-        <v>9.352617610407737</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.24297003588081</v>
+        <v>9.250049250569157</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>12.9753658119607</v>
+      </c>
+      <c r="P18">
+        <v>15.01658869032565</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.42714674513765</v>
+        <v>17.32424718962414</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.693567024657777</v>
+        <v>1.740504112528658</v>
       </c>
       <c r="E19">
-        <v>6.618944050307555</v>
+        <v>35.10330028714998</v>
       </c>
       <c r="F19">
-        <v>44.50992349617175</v>
+        <v>38.17215516705176</v>
       </c>
       <c r="G19">
-        <v>2.119626202895216</v>
+        <v>58.72432969645707</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.962762055714159</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.580823577851606</v>
       </c>
       <c r="J19">
-        <v>6.221601530831305</v>
+        <v>14.62152500595556</v>
       </c>
       <c r="K19">
-        <v>19.80726073191159</v>
+        <v>14.087100099444</v>
       </c>
       <c r="L19">
-        <v>9.326826582788222</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.25272414146605</v>
+        <v>10.01376954031593</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.6908268000334</v>
+      </c>
+      <c r="P19">
+        <v>14.63974114551933</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.67788662880423</v>
+        <v>18.47364820201684</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.738059193522912</v>
+        <v>1.932227808116162</v>
       </c>
       <c r="E20">
-        <v>6.641140802931435</v>
+        <v>33.43707463658509</v>
       </c>
       <c r="F20">
-        <v>44.93458347806646</v>
+        <v>40.13391929005834</v>
       </c>
       <c r="G20">
-        <v>2.115695553088649</v>
+        <v>61.97500397663105</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.886688371437125</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.474750826772097</v>
       </c>
       <c r="J20">
-        <v>6.216991290914501</v>
+        <v>15.4332080279724</v>
       </c>
       <c r="K20">
-        <v>20.15681314611463</v>
+        <v>14.22778022802316</v>
       </c>
       <c r="L20">
-        <v>9.442914184462726</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.20923721321266</v>
+        <v>11.42101766384867</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>15.02853716584054</v>
+      </c>
+      <c r="P20">
+        <v>14.16603194144909</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.51313568604431</v>
+        <v>19.58502187439088</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.887759566386487</v>
+        <v>2.015750385645676</v>
       </c>
       <c r="E21">
-        <v>6.717789752634791</v>
+        <v>35.14645354263404</v>
       </c>
       <c r="F21">
-        <v>46.38666032255009</v>
+        <v>42.980172389746</v>
       </c>
       <c r="G21">
-        <v>2.102574061592541</v>
+        <v>66.40593285649749</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.183123644290831</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.30993033179464</v>
       </c>
       <c r="J21">
-        <v>6.202329603044463</v>
+        <v>16.52804508211701</v>
       </c>
       <c r="K21">
-        <v>21.46605589644309</v>
+        <v>13.92511800068337</v>
       </c>
       <c r="L21">
-        <v>9.833305551030262</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.07052526227459</v>
+        <v>12.18969313898312</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.87608944052957</v>
+      </c>
+      <c r="P21">
+        <v>14.17105453288047</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.05341114193841</v>
+        <v>20.26842787262185</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.986014253482832</v>
+        <v>2.097295777077285</v>
       </c>
       <c r="E22">
-        <v>6.769681180308504</v>
+        <v>36.31461881021297</v>
       </c>
       <c r="F22">
-        <v>47.35499056106632</v>
+        <v>44.75670244862167</v>
       </c>
       <c r="G22">
-        <v>2.094043054129429</v>
+        <v>69.16570668594973</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.371137364765029</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.195905423698859</v>
       </c>
       <c r="J22">
-        <v>6.193402034369452</v>
+        <v>17.21027349377529</v>
       </c>
       <c r="K22">
-        <v>22.32787688485494</v>
+        <v>13.72362923169404</v>
       </c>
       <c r="L22">
-        <v>10.08865126355475</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.98573002292609</v>
+        <v>12.60815796971464</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>16.38153373309538</v>
+      </c>
+      <c r="P22">
+        <v>14.18647370386214</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.7655793726455</v>
+        <v>19.93249898536839</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.933517730962639</v>
+        <v>2.055712237295362</v>
       </c>
       <c r="E23">
-        <v>6.741803927017355</v>
+        <v>35.66471076166516</v>
       </c>
       <c r="F23">
-        <v>46.83636904484289</v>
+        <v>43.82743772954568</v>
       </c>
       <c r="G23">
-        <v>2.098593397196215</v>
+        <v>67.7247647323187</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.2715648479548</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.245847848713126</v>
       </c>
       <c r="J23">
-        <v>6.198104324956041</v>
+        <v>16.85413961978128</v>
       </c>
       <c r="K23">
-        <v>21.87023930117568</v>
+        <v>13.84295804030353</v>
       </c>
       <c r="L23">
-        <v>9.952351318704711</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.03042670413822</v>
+        <v>12.37588284801589</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>16.11001977968742</v>
+      </c>
+      <c r="P23">
+        <v>14.16645157084811</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.6641434691296</v>
+        <v>18.55840099799025</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.735615698440304</v>
+        <v>1.952836769063879</v>
       </c>
       <c r="E24">
-        <v>6.639914674982634</v>
+        <v>33.20162469532177</v>
       </c>
       <c r="F24">
-        <v>44.91116900197178</v>
+        <v>40.19403460085548</v>
       </c>
       <c r="G24">
-        <v>2.115911041119533</v>
+        <v>62.08792349390185</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.89024528691888</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.455843808583921</v>
       </c>
       <c r="J24">
-        <v>6.2172414356191</v>
+        <v>15.46196797269407</v>
       </c>
       <c r="K24">
-        <v>20.13768483085105</v>
+        <v>14.27879008930237</v>
       </c>
       <c r="L24">
-        <v>9.4365376264738</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.21159829945197</v>
+        <v>11.48072040556899</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>15.10308390102553</v>
+      </c>
+      <c r="P24">
+        <v>14.11456770547561</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.45393407915044</v>
+        <v>16.94765420306601</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.522359895654056</v>
+        <v>1.987490431421459</v>
       </c>
       <c r="E25">
-        <v>6.536158004895308</v>
+        <v>30.43273921855737</v>
       </c>
       <c r="F25">
-        <v>42.91487283632488</v>
+        <v>36.06596079949895</v>
       </c>
       <c r="G25">
-        <v>2.134898958611352</v>
+        <v>55.68630020421812</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.653502257092841</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.690615814398286</v>
       </c>
       <c r="J25">
-        <v>6.240465494548948</v>
+        <v>14.04270203603764</v>
       </c>
       <c r="K25">
-        <v>18.43769117498557</v>
+        <v>14.75810274575954</v>
       </c>
       <c r="L25">
-        <v>8.881590747410147</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.43004214482669</v>
+        <v>10.44539839109722</v>
       </c>
       <c r="O25">
+        <v>13.94152829616132</v>
+      </c>
+      <c r="P25">
+        <v>14.06883739144716</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_55/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.72889361237516</v>
+        <v>15.54406244408299</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.026738451681533</v>
+        <v>2.17382404852063</v>
       </c>
       <c r="E2">
-        <v>28.20571082503235</v>
+        <v>27.41756335743113</v>
       </c>
       <c r="F2">
-        <v>32.89100577963362</v>
+        <v>32.83368007163053</v>
       </c>
       <c r="G2">
-        <v>50.75612970369458</v>
+        <v>50.7552364051505</v>
       </c>
       <c r="H2">
-        <v>1.97864772978329</v>
+        <v>1.867598189719406</v>
       </c>
       <c r="I2">
-        <v>3.846906932485033</v>
+        <v>3.601738894143658</v>
       </c>
       <c r="J2">
-        <v>13.08714703598062</v>
+        <v>13.7086839330665</v>
       </c>
       <c r="K2">
-        <v>15.1502356909537</v>
+        <v>14.55363843513588</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.43737124010068</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.99728286525208</v>
       </c>
       <c r="N2">
-        <v>9.590734148648339</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>13.03675311870559</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>14.01849181158736</v>
+        <v>9.593230431695339</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>13.0357595585906</v>
+      </c>
+      <c r="R2">
+        <v>13.87351555575303</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.79378709289711</v>
+        <v>14.63409291130002</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.051743414915485</v>
+        <v>2.191867004726833</v>
       </c>
       <c r="E3">
-        <v>26.6732651372724</v>
+        <v>25.86239191851056</v>
       </c>
       <c r="F3">
-        <v>30.75323881204126</v>
+        <v>30.76215586900157</v>
       </c>
       <c r="G3">
-        <v>47.18006662427655</v>
+        <v>47.184483552556</v>
       </c>
       <c r="H3">
-        <v>2.207289173430488</v>
+        <v>2.079186607061963</v>
       </c>
       <c r="I3">
-        <v>3.971169343789808</v>
+        <v>3.707634632217411</v>
       </c>
       <c r="J3">
-        <v>12.41392470452251</v>
+        <v>13.08514681400252</v>
       </c>
       <c r="K3">
-        <v>15.40511782804731</v>
+        <v>14.79105427694368</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.61828867457458</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.22363268892431</v>
       </c>
       <c r="N3">
-        <v>8.989663723264941</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>12.37924800646656</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>14.00518705623253</v>
+        <v>9.057836727366693</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.38196030771173</v>
+      </c>
+      <c r="R3">
+        <v>13.83040887080926</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.18523759455203</v>
+        <v>14.0402098393627</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.06818163196522</v>
+        <v>2.203165959748849</v>
       </c>
       <c r="E4">
-        <v>25.69989038973825</v>
+        <v>24.87269877457501</v>
       </c>
       <c r="F4">
-        <v>29.39291147597927</v>
+        <v>29.44190382980922</v>
       </c>
       <c r="G4">
-        <v>44.9295508482754</v>
+        <v>44.89426430957398</v>
       </c>
       <c r="H4">
-        <v>2.351525676433534</v>
+        <v>2.212758085644551</v>
       </c>
       <c r="I4">
-        <v>4.050349127874084</v>
+        <v>3.775442967879657</v>
       </c>
       <c r="J4">
-        <v>11.9936131859034</v>
+        <v>12.69203817822495</v>
       </c>
       <c r="K4">
-        <v>15.56430671037448</v>
+        <v>14.93917600021674</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.73712828337155</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.37201282903464</v>
       </c>
       <c r="N4">
-        <v>8.602194592040128</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>11.95776265195554</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>14.00015987582482</v>
+        <v>8.716044812981098</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.96231066950925</v>
+      </c>
+      <c r="R4">
+        <v>13.80775341922502</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.91957223952764</v>
+        <v>13.78086070550308</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.074319415740263</v>
+        <v>2.207098929735397</v>
       </c>
       <c r="E5">
-        <v>25.30468129850228</v>
+        <v>24.46996202674993</v>
       </c>
       <c r="F5">
-        <v>28.82116070571133</v>
+        <v>28.88677491038154</v>
       </c>
       <c r="G5">
-        <v>43.98107822115092</v>
+        <v>43.92725720600627</v>
       </c>
       <c r="H5">
-        <v>2.411568348249532</v>
+        <v>2.268389422421953</v>
       </c>
       <c r="I5">
-        <v>4.085875836668223</v>
+        <v>3.806738518773485</v>
       </c>
       <c r="J5">
-        <v>11.81844607943654</v>
+        <v>12.52735609739841</v>
       </c>
       <c r="K5">
-        <v>15.62657906702461</v>
+        <v>14.99699292834363</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.78312490502357</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.4344158428</v>
       </c>
       <c r="N5">
-        <v>8.443399372678313</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>11.78019116963206</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>14.00132021918187</v>
+        <v>8.576999335397865</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.78548359008261</v>
+      </c>
+      <c r="R5">
+        <v>13.80176474386161</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.86378294692644</v>
+        <v>13.72681317890498</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.074364522346021</v>
+        <v>2.206873726736005</v>
       </c>
       <c r="E6">
-        <v>25.25032110505551</v>
+        <v>24.41388900533138</v>
       </c>
       <c r="F6">
-        <v>28.71863913156771</v>
+        <v>28.78753144752157</v>
       </c>
       <c r="G6">
-        <v>43.81016355522235</v>
+        <v>43.75414303664916</v>
       </c>
       <c r="H6">
-        <v>2.4219176482575</v>
+        <v>2.277989725034216</v>
       </c>
       <c r="I6">
-        <v>4.095036641568719</v>
+        <v>3.815762010780207</v>
       </c>
       <c r="J6">
-        <v>11.78644737054345</v>
+        <v>12.49734604506987</v>
       </c>
       <c r="K6">
-        <v>15.63295799899222</v>
+        <v>15.00280209441605</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.78558984137666</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.44442470006089</v>
       </c>
       <c r="N6">
-        <v>8.421299778995472</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>11.74861592604173</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>14.00454545119185</v>
+        <v>8.557890137031626</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.75416254208279</v>
+      </c>
+      <c r="R6">
+        <v>13.80364537597864</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.1518635118373</v>
+        <v>14.00587985241258</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.065562178597447</v>
+        <v>2.195712682155173</v>
       </c>
       <c r="E7">
-        <v>25.72614069594146</v>
+        <v>24.87410825022935</v>
       </c>
       <c r="F7">
-        <v>29.36691709468659</v>
+        <v>29.37628534683818</v>
       </c>
       <c r="G7">
-        <v>44.88484899755094</v>
+        <v>44.92330090101364</v>
       </c>
       <c r="H7">
-        <v>2.353175235869987</v>
+        <v>2.215100015712121</v>
       </c>
       <c r="I7">
-        <v>4.059319775587849</v>
+        <v>3.786172269015632</v>
       </c>
       <c r="J7">
-        <v>11.98369259175398</v>
+        <v>12.59963046239236</v>
       </c>
       <c r="K7">
-        <v>15.55425360707835</v>
+        <v>14.92860053871942</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.7223285347654</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.37107489846451</v>
       </c>
       <c r="N7">
-        <v>8.612202146009992</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>11.95045948188296</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>14.00844841494732</v>
+        <v>8.719528492526987</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.95089011231902</v>
+      </c>
+      <c r="R7">
+        <v>13.81680052677459</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.37699415300639</v>
+        <v>15.19430752092727</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.03153533894378</v>
+        <v>2.159870920722525</v>
       </c>
       <c r="E8">
-        <v>27.72333826868034</v>
+        <v>26.85267129516239</v>
       </c>
       <c r="F8">
-        <v>32.14160737985827</v>
+        <v>31.98191757841124</v>
       </c>
       <c r="G8">
-        <v>49.50483401175634</v>
+        <v>49.72534362948493</v>
       </c>
       <c r="H8">
-        <v>2.057721310691643</v>
+        <v>1.943300601545407</v>
       </c>
       <c r="I8">
-        <v>3.899848333718161</v>
+        <v>3.651312099829132</v>
       </c>
       <c r="J8">
-        <v>12.84718614819272</v>
+        <v>13.22465209935179</v>
       </c>
       <c r="K8">
-        <v>15.22346456021841</v>
+        <v>14.6190356048268</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.47869391600406</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.06845858542355</v>
       </c>
       <c r="N8">
-        <v>9.402151846855418</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>12.80766654433468</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>14.0247422674563</v>
+        <v>9.40711235012607</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.79446198512426</v>
+      </c>
+      <c r="R8">
+        <v>13.87339630872785</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.5515855359947</v>
+        <v>17.29998339084639</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.979651145723617</v>
+        <v>2.114218223132202</v>
       </c>
       <c r="E9">
-        <v>31.33324082475709</v>
+        <v>30.49303873821517</v>
       </c>
       <c r="F9">
-        <v>37.51163921172155</v>
+        <v>37.05294001002029</v>
       </c>
       <c r="G9">
-        <v>57.93279004338325</v>
+        <v>58.16026574238977</v>
       </c>
       <c r="H9">
-        <v>1.614018157594981</v>
+        <v>1.684342023386564</v>
       </c>
       <c r="I9">
-        <v>3.595485622198573</v>
+        <v>3.391068670667833</v>
       </c>
       <c r="J9">
-        <v>14.49239966586072</v>
+        <v>14.68308932823405</v>
       </c>
       <c r="K9">
-        <v>14.61378937574593</v>
+        <v>14.05019846931532</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.08862177099889</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.557021703598316</v>
       </c>
       <c r="N9">
-        <v>10.78584020115792</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>14.35030185049084</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>14.0661836867716</v>
+        <v>10.68614278435854</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.32302008206697</v>
+      </c>
+      <c r="R9">
+        <v>13.99493267142641</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.89084688305291</v>
+        <v>18.58949206246769</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.928842904418674</v>
+        <v>2.035016314320186</v>
       </c>
       <c r="E10">
-        <v>34.0504916207488</v>
+        <v>33.09533723425279</v>
       </c>
       <c r="F10">
-        <v>41.10786655222375</v>
+        <v>40.32942884658755</v>
       </c>
       <c r="G10">
-        <v>63.48913624338329</v>
+        <v>64.04038053356787</v>
       </c>
       <c r="H10">
-        <v>1.987643004733683</v>
+        <v>2.024201266457508</v>
       </c>
       <c r="I10">
-        <v>3.395244984217261</v>
+        <v>3.225080739355928</v>
       </c>
       <c r="J10">
-        <v>15.80713975984046</v>
+        <v>15.25682346523336</v>
       </c>
       <c r="K10">
-        <v>14.1346080685357</v>
+        <v>13.60726911723327</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.81806839030091</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.199886864946617</v>
       </c>
       <c r="N10">
-        <v>11.60792792995596</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>15.28553239167192</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>14.16017204133539</v>
+        <v>11.50151667576049</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>15.2279663966897</v>
+      </c>
+      <c r="R10">
+        <v>14.15497993190158</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.77680154154742</v>
+        <v>18.55758139184336</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.882272866311373</v>
+        <v>1.81315635803226</v>
       </c>
       <c r="E11">
-        <v>37.0445932557468</v>
+        <v>35.74819590638728</v>
       </c>
       <c r="F11">
-        <v>41.79627435245636</v>
+        <v>40.63873660860892</v>
       </c>
       <c r="G11">
-        <v>64.38384137758236</v>
+        <v>65.72212358542335</v>
       </c>
       <c r="H11">
-        <v>2.900768447152922</v>
+        <v>2.913666244784165</v>
       </c>
       <c r="I11">
-        <v>3.370288611905199</v>
+        <v>3.214846047891409</v>
       </c>
       <c r="J11">
-        <v>16.02029016870552</v>
+        <v>14.47571134123881</v>
       </c>
       <c r="K11">
-        <v>13.68282372710621</v>
+        <v>13.25219010811219</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.63040932060872</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.878576977061654</v>
       </c>
       <c r="N11">
-        <v>11.0375066650087</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>14.81216691827852</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>14.633808376542</v>
+        <v>10.8202332817439</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.72932478227935</v>
+      </c>
+      <c r="R11">
+        <v>14.62889997520834</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.43580215059135</v>
+        <v>18.30373856669267</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.835861554391635</v>
+        <v>1.674277152539129</v>
       </c>
       <c r="E12">
-        <v>39.02992996976401</v>
+        <v>37.52341577142496</v>
       </c>
       <c r="F12">
-        <v>41.65460350103361</v>
+        <v>40.35145757529626</v>
       </c>
       <c r="G12">
-        <v>64.02656247707064</v>
+        <v>65.77787614389104</v>
       </c>
       <c r="H12">
-        <v>4.171396193161815</v>
+        <v>4.177157919563994</v>
       </c>
       <c r="I12">
-        <v>3.371319426753504</v>
+        <v>3.217941505327229</v>
       </c>
       <c r="J12">
-        <v>15.92556280846922</v>
+        <v>13.94092393334981</v>
       </c>
       <c r="K12">
-        <v>13.53914726407091</v>
+        <v>13.15609901993739</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.62166573436395</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.753698632019482</v>
       </c>
       <c r="N12">
-        <v>10.38099105159212</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>14.25463855649963</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>15.04022970901749</v>
+        <v>10.08839630645551</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>14.12895821336822</v>
+      </c>
+      <c r="R12">
+        <v>15.00682201104487</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.85401942564865</v>
+        <v>17.82920189349474</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.780272193104925</v>
+        <v>1.594124602884964</v>
       </c>
       <c r="E13">
-        <v>40.44384149613995</v>
+        <v>38.86793338601405</v>
       </c>
       <c r="F13">
-        <v>40.82387767238188</v>
+        <v>39.62345544636324</v>
       </c>
       <c r="G13">
-        <v>62.6094539858529</v>
+        <v>64.40102916447537</v>
       </c>
       <c r="H13">
-        <v>5.496732017587078</v>
+        <v>5.502322795992105</v>
       </c>
       <c r="I13">
-        <v>3.406587684723107</v>
+        <v>3.247423564049951</v>
       </c>
       <c r="J13">
-        <v>15.5691437496112</v>
+        <v>13.7163456934234</v>
       </c>
       <c r="K13">
-        <v>13.60516744820606</v>
+        <v>13.22317297166882</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.69803092832439</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.774978727416679</v>
       </c>
       <c r="N13">
-        <v>9.615423669768616</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>13.54357639873384</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>15.4237662797397</v>
+        <v>9.277356290540171</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.43347022106554</v>
+      </c>
+      <c r="R13">
+        <v>15.33218875540958</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.32243746522385</v>
+        <v>17.38338400864804</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.739630628616819</v>
+        <v>1.561569750163497</v>
       </c>
       <c r="E14">
-        <v>41.20778972555289</v>
+        <v>39.64586446915811</v>
       </c>
       <c r="F14">
-        <v>39.9129674885786</v>
+        <v>38.89559860090527</v>
       </c>
       <c r="G14">
-        <v>61.10748602076691</v>
+        <v>62.76547964455814</v>
       </c>
       <c r="H14">
-        <v>6.444774795110043</v>
+        <v>6.45152819285568</v>
       </c>
       <c r="I14">
-        <v>3.449133197528783</v>
+        <v>3.283014285574971</v>
       </c>
       <c r="J14">
-        <v>15.19356323604692</v>
+        <v>13.68762946846585</v>
       </c>
       <c r="K14">
-        <v>13.75890518091203</v>
+        <v>13.34707551930523</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.78340069367251</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.868962137707815</v>
       </c>
       <c r="N14">
-        <v>9.027399060430923</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>12.95727077552009</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>15.68665348870024</v>
+        <v>8.668960890972969</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>12.87473971781534</v>
+      </c>
+      <c r="R14">
+        <v>15.53954955787209</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.13078123028814</v>
+        <v>17.21721516287309</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.724973212299439</v>
+        <v>1.562023813038019</v>
       </c>
       <c r="E15">
-        <v>41.2811432546613</v>
+        <v>39.75086158158382</v>
       </c>
       <c r="F15">
-        <v>39.53417566083468</v>
+        <v>38.61002609653194</v>
       </c>
       <c r="G15">
-        <v>60.49839770243744</v>
+        <v>62.05415182253817</v>
       </c>
       <c r="H15">
-        <v>6.677721362250126</v>
+        <v>6.672535561268075</v>
       </c>
       <c r="I15">
-        <v>3.471350166622654</v>
+        <v>3.302573250899481</v>
       </c>
       <c r="J15">
-        <v>15.04200437620188</v>
+        <v>13.73189178068222</v>
       </c>
       <c r="K15">
-        <v>13.8258429588082</v>
+        <v>13.39878243111946</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.80825642842225</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.91751041850873</v>
       </c>
       <c r="N15">
-        <v>8.860471823757479</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>12.77269058258821</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>15.74501876959282</v>
+        <v>8.501931321609641</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>12.70252833793665</v>
+      </c>
+      <c r="R15">
+        <v>15.57909996699833</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.639407708186</v>
+        <v>16.754506535227</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.666525942600258</v>
+        <v>1.64101541511344</v>
       </c>
       <c r="E16">
-        <v>39.99712081124002</v>
+        <v>38.71339993170756</v>
       </c>
       <c r="F16">
-        <v>38.11018312016676</v>
+        <v>37.59170295663746</v>
       </c>
       <c r="G16">
-        <v>58.30605796869405</v>
+        <v>59.26867296767967</v>
       </c>
       <c r="H16">
-        <v>6.469629293451671</v>
+        <v>6.459172350672403</v>
       </c>
       <c r="I16">
-        <v>3.55658401843441</v>
+        <v>3.372545086907826</v>
       </c>
       <c r="J16">
-        <v>14.50171979009423</v>
+        <v>14.13251046594089</v>
       </c>
       <c r="K16">
-        <v>13.99864553585787</v>
+        <v>13.53138686163729</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.80118975475954</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>9.097060182034271</v>
       </c>
       <c r="N16">
-        <v>8.619073490323471</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>12.40775047964967</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>15.61396118096537</v>
+        <v>8.304431556608927</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.40538951403891</v>
+      </c>
+      <c r="R16">
+        <v>15.41281370112214</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.55139101790265</v>
+        <v>16.63723311713977</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.642124344110176</v>
+        <v>1.717707116300582</v>
       </c>
       <c r="E17">
-        <v>38.56077066845978</v>
+        <v>37.42600450736866</v>
       </c>
       <c r="F17">
-        <v>37.51509870309436</v>
+        <v>37.16032829588636</v>
       </c>
       <c r="G17">
-        <v>57.44733764522354</v>
+        <v>58.10002348590046</v>
       </c>
       <c r="H17">
-        <v>5.728322577214721</v>
+        <v>5.712997874115159</v>
       </c>
       <c r="I17">
-        <v>3.599877183140678</v>
+        <v>3.40834728411161</v>
       </c>
       <c r="J17">
-        <v>14.29333811352988</v>
+        <v>14.35197130400994</v>
       </c>
       <c r="K17">
-        <v>14.04430364536103</v>
+        <v>13.57319740076963</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.77072391882749</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.174883183899937</v>
       </c>
       <c r="N17">
-        <v>8.758263504691987</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>12.49824482692693</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>15.37344970511419</v>
+        <v>8.483968517007344</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.52982611585526</v>
+      </c>
+      <c r="R17">
+        <v>15.17977663787689</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.82742569503979</v>
+        <v>16.83475141954161</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.656088749556375</v>
+        <v>1.814208700743611</v>
       </c>
       <c r="E18">
-        <v>36.83136011435646</v>
+        <v>35.81919265297151</v>
       </c>
       <c r="F18">
-        <v>37.59192299399018</v>
+        <v>37.27424480495608</v>
       </c>
       <c r="G18">
-        <v>57.68219545498452</v>
+        <v>58.12805662988836</v>
       </c>
       <c r="H18">
-        <v>4.461342202600673</v>
+        <v>4.439774848929774</v>
       </c>
       <c r="I18">
-        <v>3.600582715386084</v>
+        <v>3.405406017360828</v>
       </c>
       <c r="J18">
-        <v>14.35736340088336</v>
+        <v>14.59310341670886</v>
       </c>
       <c r="K18">
-        <v>14.04142258461113</v>
+        <v>13.58008433803199</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.74856474704013</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.197892914512913</v>
       </c>
       <c r="N18">
-        <v>9.250049250569157</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>12.9753658119607</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>15.01658869032565</v>
+        <v>9.027705499618015</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>12.99935497395371</v>
+      </c>
+      <c r="R18">
+        <v>14.86030215733396</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.32424718962414</v>
+        <v>17.22631729571901</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.740504112528658</v>
+        <v>1.923851816617707</v>
       </c>
       <c r="E19">
-        <v>35.10330028714998</v>
+        <v>34.19223156967238</v>
       </c>
       <c r="F19">
-        <v>38.17215516705176</v>
+        <v>37.81766902176363</v>
       </c>
       <c r="G19">
-        <v>58.72432969645707</v>
+        <v>59.02079141168058</v>
       </c>
       <c r="H19">
-        <v>2.962762055714159</v>
+        <v>2.997174237823513</v>
       </c>
       <c r="I19">
-        <v>3.580823577851606</v>
+        <v>3.389152665488741</v>
       </c>
       <c r="J19">
-        <v>14.62152500595556</v>
+        <v>14.88250259249934</v>
       </c>
       <c r="K19">
-        <v>14.087100099444</v>
+        <v>13.61875407644829</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.77703614704648</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.225176453468807</v>
       </c>
       <c r="N19">
-        <v>10.01376954031593</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>13.6908268000334</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>14.63974114551933</v>
+        <v>9.850322844766293</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.69777588693215</v>
+      </c>
+      <c r="R19">
+        <v>14.53194137588891</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.47364820201684</v>
+        <v>18.19961082666375</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.932227808116162</v>
+        <v>2.06634135179407</v>
       </c>
       <c r="E20">
-        <v>33.43707463658509</v>
+        <v>32.57833857001295</v>
       </c>
       <c r="F20">
-        <v>40.13391929005834</v>
+        <v>39.55573134103024</v>
       </c>
       <c r="G20">
-        <v>61.97500397663105</v>
+        <v>62.26230872181442</v>
       </c>
       <c r="H20">
-        <v>1.886688371437125</v>
+        <v>1.93468549667327</v>
       </c>
       <c r="I20">
-        <v>3.474750826772097</v>
+        <v>3.299685982150003</v>
       </c>
       <c r="J20">
-        <v>15.4332080279724</v>
+        <v>15.336899370969</v>
       </c>
       <c r="K20">
-        <v>14.22778022802316</v>
+        <v>13.69958815647742</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.86829201103159</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.272511230022355</v>
       </c>
       <c r="N20">
-        <v>11.42101766384867</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>15.02853716584054</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>14.16603194144909</v>
+        <v>11.33104927002177</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.99308783469978</v>
+      </c>
+      <c r="R20">
+        <v>14.13674838381703</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.58502187439088</v>
+        <v>19.2070895061889</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.015750385645676</v>
+        <v>1.935975628423371</v>
       </c>
       <c r="E21">
-        <v>35.14645354263404</v>
+        <v>33.86120633594499</v>
       </c>
       <c r="F21">
-        <v>42.980172389746</v>
+        <v>41.56989647180856</v>
       </c>
       <c r="G21">
-        <v>66.40593285649749</v>
+        <v>67.85753871903786</v>
       </c>
       <c r="H21">
-        <v>2.183123644290831</v>
+        <v>2.192090572450296</v>
       </c>
       <c r="I21">
-        <v>3.30993033179464</v>
+        <v>3.167153371959021</v>
       </c>
       <c r="J21">
-        <v>16.52804508211701</v>
+        <v>14.56077073607512</v>
       </c>
       <c r="K21">
-        <v>13.92511800068337</v>
+        <v>13.39505477810244</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.70362358466352</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.034593062778722</v>
       </c>
       <c r="N21">
-        <v>12.18969313898312</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>15.87608944052957</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>14.17105453288047</v>
+        <v>12.02040194950575</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.74599430713147</v>
+      </c>
+      <c r="R21">
+        <v>14.23003974014811</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.26842787262185</v>
+        <v>19.8265272284791</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.097295777077285</v>
+        <v>1.838356470405644</v>
       </c>
       <c r="E22">
-        <v>36.31461881021297</v>
+        <v>34.73312198313851</v>
       </c>
       <c r="F22">
-        <v>44.75670244862167</v>
+        <v>42.7894739642794</v>
       </c>
       <c r="G22">
-        <v>69.16570668594973</v>
+        <v>71.40337452049536</v>
       </c>
       <c r="H22">
-        <v>2.371137364765029</v>
+        <v>2.354109075414299</v>
       </c>
       <c r="I22">
-        <v>3.195905423698859</v>
+        <v>3.072015451133359</v>
       </c>
       <c r="J22">
-        <v>17.21027349377529</v>
+        <v>13.97093543693074</v>
       </c>
       <c r="K22">
-        <v>13.72362923169404</v>
+        <v>13.19334236002419</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.60217366635363</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.883929495218323</v>
       </c>
       <c r="N22">
-        <v>12.60815796971464</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>16.38153373309538</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>14.18647370386214</v>
+        <v>12.37999191218042</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.17025597319574</v>
+      </c>
+      <c r="R22">
+        <v>14.3048574831903</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.93249898536839</v>
+        <v>19.52848883211792</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.055712237295362</v>
+        <v>1.906098659810262</v>
       </c>
       <c r="E23">
-        <v>35.66471076166516</v>
+        <v>34.28918827677711</v>
       </c>
       <c r="F23">
-        <v>43.82743772954568</v>
+        <v>42.23315556697478</v>
       </c>
       <c r="G23">
-        <v>67.7247647323187</v>
+        <v>69.41402234539875</v>
       </c>
       <c r="H23">
-        <v>2.2715648479548</v>
+        <v>2.270021614634135</v>
       </c>
       <c r="I23">
-        <v>3.245847848713126</v>
+        <v>3.109083136430464</v>
       </c>
       <c r="J23">
-        <v>16.85413961978128</v>
+        <v>14.46590129275415</v>
       </c>
       <c r="K23">
-        <v>13.84295804030353</v>
+        <v>13.31136342644816</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.66083384112182</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.974519967629073</v>
       </c>
       <c r="N23">
-        <v>12.37588284801589</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>16.11001977968742</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>14.16645157084811</v>
+        <v>12.19118346786623</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.95878738737514</v>
+      </c>
+      <c r="R23">
+        <v>14.24904097717637</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.55840099799025</v>
+        <v>18.27098081901937</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.952836769063879</v>
+        <v>2.084583815538756</v>
       </c>
       <c r="E24">
-        <v>33.20162469532177</v>
+        <v>32.35558440220876</v>
       </c>
       <c r="F24">
-        <v>40.19403460085548</v>
+        <v>39.61544370007609</v>
       </c>
       <c r="G24">
-        <v>62.08792349390185</v>
+        <v>62.34855804901809</v>
       </c>
       <c r="H24">
-        <v>1.89024528691888</v>
+        <v>1.938475970171634</v>
       </c>
       <c r="I24">
-        <v>3.455843808583921</v>
+        <v>3.277720921443743</v>
       </c>
       <c r="J24">
-        <v>15.46196797269407</v>
+        <v>15.37953201951136</v>
       </c>
       <c r="K24">
-        <v>14.27879008930237</v>
+        <v>13.73893988899097</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.89652532153053</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.304155045147285</v>
       </c>
       <c r="N24">
-        <v>11.48072040556899</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>15.10308390102553</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>14.11456770547561</v>
+        <v>11.39811117633912</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>15.06582680551651</v>
+      </c>
+      <c r="R24">
+        <v>14.08826328592743</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.94765420306601</v>
+        <v>16.72177447291874</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.987490431421459</v>
+        <v>2.129428829999324</v>
       </c>
       <c r="E25">
-        <v>30.43273921855737</v>
+        <v>29.61454321865325</v>
       </c>
       <c r="F25">
-        <v>36.06596079949895</v>
+        <v>35.71172921918208</v>
       </c>
       <c r="G25">
-        <v>55.68630020421812</v>
+        <v>55.83253018348154</v>
       </c>
       <c r="H25">
-        <v>1.653502257092841</v>
+        <v>1.568960968225534</v>
       </c>
       <c r="I25">
-        <v>3.690615814398286</v>
+        <v>3.476626295208317</v>
       </c>
       <c r="J25">
-        <v>14.04270203603764</v>
+        <v>14.3928240009035</v>
       </c>
       <c r="K25">
-        <v>14.75810274575954</v>
+        <v>14.18773319520438</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.17386564970327</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.678220502504885</v>
       </c>
       <c r="N25">
-        <v>10.44539839109722</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>13.94152829616132</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>14.06883739144716</v>
+        <v>10.35096875906553</v>
       </c>
       <c r="Q25">
+        <v>13.92456396057914</v>
+      </c>
+      <c r="R25">
+        <v>13.97280554044655</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
